--- a/config/default/forms/app/pregnancy_facility_visit_reminder.xlsx
+++ b/config/default/forms/app/pregnancy_facility_visit_reminder.xlsx
@@ -14,188 +14,188 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="242">
+  <si>
+    <t>form_title</t>
+  </si>
   <si>
     <t>list_name</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>label::en</t>
   </si>
   <si>
+    <t>Health facility ANC reminder</t>
+  </si>
+  <si>
     <t>label::hi</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>default_language</t>
-  </si>
-  <si>
     <t>label::id</t>
   </si>
   <si>
-    <t>Health facility ANC reminder</t>
-  </si>
-  <si>
     <t>label::sw</t>
   </si>
   <si>
+    <t>label::ne</t>
+  </si>
+  <si>
+    <t>label::es</t>
+  </si>
+  <si>
+    <t>label::fr</t>
+  </si>
+  <si>
+    <t>remind_methods</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message::en</t>
+  </si>
+  <si>
+    <t>constraint_message::hi</t>
+  </si>
+  <si>
+    <t>constraint_message::id</t>
+  </si>
+  <si>
+    <t>constraint_message::sw</t>
+  </si>
+  <si>
+    <t>constraint_message::ne</t>
+  </si>
+  <si>
+    <t>constraint_message::es</t>
+  </si>
+  <si>
+    <t>constraint_message::fr</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint::en</t>
+  </si>
+  <si>
+    <t>hint::hi</t>
+  </si>
+  <si>
+    <t>hint::id</t>
+  </si>
+  <si>
+    <t>hint::sw</t>
+  </si>
+  <si>
+    <t>in_person</t>
+  </si>
+  <si>
+    <t>hint::ne</t>
+  </si>
+  <si>
+    <t>In person</t>
+  </si>
+  <si>
+    <t>hint::es</t>
+  </si>
+  <si>
+    <t>hint::fr</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>media::image</t>
+  </si>
+  <si>
     <t>pregnancy_facility_visit_reminder</t>
   </si>
   <si>
-    <t>label::ne</t>
-  </si>
-  <si>
-    <t>label::es</t>
-  </si>
-  <si>
-    <t>label::fr</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message::en</t>
-  </si>
-  <si>
-    <t>constraint_message::hi</t>
-  </si>
-  <si>
-    <t>constraint_message::id</t>
-  </si>
-  <si>
-    <t>constraint_message::sw</t>
-  </si>
-  <si>
-    <t>constraint_message::ne</t>
-  </si>
-  <si>
-    <t>constraint_message::es</t>
-  </si>
-  <si>
-    <t>constraint_message::fr</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
-    <t>hint::en</t>
-  </si>
-  <si>
-    <t>hint::hi</t>
-  </si>
-  <si>
-    <t>hint::id</t>
-  </si>
-  <si>
-    <t>hint::sw</t>
-  </si>
-  <si>
-    <t>hint::ne</t>
-  </si>
-  <si>
-    <t>hint::es</t>
-  </si>
-  <si>
-    <t>hint::fr</t>
-  </si>
-  <si>
-    <t>default</t>
+    <t>by_phone</t>
+  </si>
+  <si>
+    <t>By phone</t>
+  </si>
+  <si>
+    <t>instance::tag</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>translate_woman_label</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>the woman</t>
   </si>
   <si>
     <t>pages</t>
   </si>
   <si>
+    <t>translate_woman_start_label</t>
+  </si>
+  <si>
+    <t>woman-start</t>
+  </si>
+  <si>
+    <t>The woman</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>media::image</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
-    <t>remind_methods</t>
-  </si>
-  <si>
-    <t>instance::tag</t>
-  </si>
-  <si>
-    <t>repeat_count</t>
-  </si>
-  <si>
-    <t>in_person</t>
-  </si>
-  <si>
-    <t>In person</t>
-  </si>
-  <si>
-    <t>begin group</t>
-  </si>
-  <si>
     <t>inputs</t>
   </si>
   <si>
     <t>Patient</t>
   </si>
   <si>
-    <t>by_phone</t>
-  </si>
-  <si>
-    <t>By phone</t>
-  </si>
-  <si>
-    <t>translate_woman_label</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>the woman</t>
-  </si>
-  <si>
-    <t>translate_woman_start_label</t>
-  </si>
-  <si>
-    <t>woman-start</t>
-  </si>
-  <si>
-    <t>The woman</t>
-  </si>
-  <si>
     <t>./source = 'user'</t>
   </si>
   <si>
@@ -220,6 +220,12 @@
     <t>Source ID</t>
   </si>
   <si>
+    <t>source_visit_date</t>
+  </si>
+  <si>
+    <t>Visit Date</t>
+  </si>
+  <si>
     <t>contact</t>
   </si>
   <si>
@@ -265,27 +271,27 @@
     <t>Sex</t>
   </si>
   <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>parent</t>
   </si>
   <si>
     <t>Parent</t>
   </si>
   <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>lmp_approximations</t>
   </si>
   <si>
@@ -295,31 +301,73 @@
     <t>Upto 2 Months Ago</t>
   </si>
   <si>
+    <t>upto_3_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 3 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_4_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 4 Months Ago</t>
+  </si>
+  <si>
+    <t>between_5_and_6_months_ago</t>
+  </si>
+  <si>
+    <t>Between 5 And 6 Months Ago</t>
+  </si>
+  <si>
+    <t>between_7_and_8_months_ago</t>
+  </si>
+  <si>
+    <t>Between 7 And 8 Months Ago</t>
+  </si>
+  <si>
+    <t>trimester1_choices</t>
+  </si>
+  <si>
+    <t>eat_extra_meal</t>
+  </si>
+  <si>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+  </si>
+  <si>
+    <t>take_iron_and_folic_acid</t>
+  </si>
+  <si>
     <t>Parent ID</t>
   </si>
   <si>
-    <t>upto_3_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 3 Months Ago</t>
-  </si>
-  <si>
-    <t>upto_4_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 4 Months Ago</t>
-  </si>
-  <si>
-    <t>between_5_and_6_months_ago</t>
-  </si>
-  <si>
-    <t>Between 5 And 6 Months Ago</t>
-  </si>
-  <si>
-    <t>between_7_and_8_months_ago</t>
-  </si>
-  <si>
-    <t>Between 7 And 8 Months Ago</t>
+    <t>Take iron and folic acid tablets</t>
+  </si>
+  <si>
+    <t>avoid_heavy_work</t>
+  </si>
+  <si>
+    <t>Avoid heavy work, rest more</t>
+  </si>
+  <si>
+    <t>sleep_under_bednet</t>
+  </si>
+  <si>
+    <t>Sleep under an insecticide treated bednet</t>
+  </si>
+  <si>
+    <t>go_for_anc_visit</t>
+  </si>
+  <si>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+  </si>
+  <si>
+    <t>develop_birth_plan</t>
+  </si>
+  <si>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+  </si>
+  <si>
+    <t>trimester2_choices</t>
   </si>
   <si>
     <t>chw_name</t>
@@ -328,84 +376,42 @@
     <t>CHW name</t>
   </si>
   <si>
+    <t>couselling_on_exclusive_breastfeeding</t>
+  </si>
+  <si>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
     <t>CHW phone</t>
   </si>
   <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>heart_condition</t>
+  </si>
+  <si>
+    <t>Heart condition</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>high_blood_pressure</t>
+  </si>
+  <si>
+    <t>High blood pressure</t>
+  </si>
+  <si>
     <t>end group</t>
   </si>
   <si>
-    <t>trimester1_choices</t>
-  </si>
-  <si>
-    <t>eat_extra_meal</t>
-  </si>
-  <si>
-    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
-  </si>
-  <si>
-    <t>take_iron_and_folic_acid</t>
-  </si>
-  <si>
-    <t>Take iron and folic acid tablets</t>
-  </si>
-  <si>
-    <t>avoid_heavy_work</t>
-  </si>
-  <si>
-    <t>Avoid heavy work, rest more</t>
-  </si>
-  <si>
-    <t>sleep_under_bednet</t>
-  </si>
-  <si>
-    <t>Sleep under an insecticide treated bednet</t>
-  </si>
-  <si>
-    <t>go_for_anc_visit</t>
-  </si>
-  <si>
-    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
-  </si>
-  <si>
-    <t>develop_birth_plan</t>
-  </si>
-  <si>
-    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
-  </si>
-  <si>
-    <t>trimester2_choices</t>
-  </si>
-  <si>
-    <t>couselling_on_exclusive_breastfeeding</t>
-  </si>
-  <si>
-    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
-  </si>
-  <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>heart_condition</t>
-  </si>
-  <si>
-    <t>Heart condition</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>high_blood_pressure</t>
-  </si>
-  <si>
-    <t>High blood pressure</t>
-  </si>
-  <si>
     <t>known_diabetes</t>
   </si>
   <si>
@@ -418,115 +424,238 @@
     <t>Other</t>
   </si>
   <si>
+    <t>hiv_statuses</t>
+  </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>fp_methods</t>
+  </si>
+  <si>
     <t>calculate</t>
   </si>
   <si>
-    <t>hiv_statuses</t>
-  </si>
-  <si>
-    <t>known</t>
-  </si>
-  <si>
     <t>patient_age_in_years</t>
   </si>
   <si>
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>Combined oral contraceptives</t>
   </si>
   <si>
     <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
   </si>
   <si>
-    <t>fp_methods</t>
+    <t>Progesterone only pills</t>
+  </si>
+  <si>
+    <t>Injectibles</t>
+  </si>
+  <si>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
+    <t>Implants (2 rods)</t>
+  </si>
+  <si>
+    <t>IUD</t>
   </si>
   <si>
     <t>patient_uuid</t>
   </si>
   <si>
+    <t>Condoms</t>
+  </si>
+  <si>
+    <t>Tubal ligation</t>
+  </si>
+  <si>
+    <t>Cycle beads</t>
+  </si>
+  <si>
     <t>../inputs/contact/_id</t>
   </si>
   <si>
     <t>../inputs/contact/patient_id</t>
   </si>
   <si>
+    <t>reasons_not_on_fp</t>
+  </si>
+  <si>
+    <t>Wants to get pregnant</t>
+  </si>
+  <si>
+    <t>Did not want FP</t>
+  </si>
+  <si>
+    <t>follow_up_methods</t>
+  </si>
+  <si>
+    <t>reasons_for_missing_visit</t>
+  </si>
+  <si>
+    <t>not_reminded</t>
+  </si>
+  <si>
     <t>patient_name</t>
   </si>
   <si>
+    <t>She was not reminded</t>
+  </si>
+  <si>
+    <t>travelled</t>
+  </si>
+  <si>
+    <t>She had travelled</t>
+  </si>
+  <si>
+    <t>no_lab_results</t>
+  </si>
+  <si>
+    <t>No Lab results yet</t>
+  </si>
+  <si>
+    <t>too_early</t>
+  </si>
+  <si>
+    <t>It is too early to start clinic</t>
+  </si>
+  <si>
+    <t>relocated</t>
+  </si>
+  <si>
+    <t>Relocated</t>
+  </si>
+  <si>
+    <t>actions_taken</t>
+  </si>
+  <si>
+    <t>referred</t>
+  </si>
+  <si>
+    <t>Referred the mother</t>
+  </si>
+  <si>
+    <t>key_message</t>
+  </si>
+  <si>
+    <t>Provided key health message</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>Accompany the mother to facility</t>
+  </si>
+  <si>
     <t>../inputs/contact/name</t>
   </si>
   <si>
+    <t>recent_foods</t>
+  </si>
+  <si>
+    <t>carbohydrates</t>
+  </si>
+  <si>
+    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>Body building foods: Milk, eggs, meat</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>Fruits: Mangoes, ripe bananas, oranges</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>pos_neg</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>reasons_to_discontinue</t>
+  </si>
+  <si>
+    <t>wants_to_get_pregnant</t>
+  </si>
+  <si>
     <t>patient_short_name</t>
   </si>
   <si>
-    <t>coalesce(../inputs/contact/short_name, ../summary/custom_translations/custom_woman_label)</t>
+    <t>coalesce(../inputs/contact/short_name, ../facility_visit_reminder/custom_translations/custom_woman_label)</t>
   </si>
   <si>
     <t>patient_short_name_start</t>
   </si>
   <si>
-    <t>Combined oral contraceptives</t>
-  </si>
-  <si>
-    <t>coalesce(../inputs/contact/short_name, ../summary/custom_translations/custom_woman_start_label)</t>
+    <t>feels_sick_when_using_it</t>
+  </si>
+  <si>
+    <t>Feels sick when using it</t>
+  </si>
+  <si>
+    <t>coalesce(../inputs/contact/short_name, ../facility_visit_reminder/custom_translations/custom_woman_start_label)</t>
   </si>
   <si>
     <t>pregnancy_uuid_ctx</t>
   </si>
   <si>
-    <t>Progesterone only pills</t>
-  </si>
-  <si>
-    <t>Injectibles</t>
-  </si>
-  <si>
-    <t>Implants (1 rod)</t>
-  </si>
-  <si>
-    <t>Implants (2 rods)</t>
-  </si>
-  <si>
-    <t>IUD</t>
-  </si>
-  <si>
-    <t>Condoms</t>
-  </si>
-  <si>
-    <t>Tubal ligation</t>
-  </si>
-  <si>
     <t>if(instance('contact-summary')/context/pregnancy_uuid != '', instance('contact-summary')/context/pregnancy_uuid, .)</t>
   </si>
   <si>
-    <t>Cycle beads</t>
-  </si>
-  <si>
     <t>hiden</t>
   </si>
   <si>
+    <t>visit_date_for_task</t>
+  </si>
+  <si>
+    <t>format-date-time(../inputs/source_visit_date, "%e %b, %Y")</t>
+  </si>
+  <si>
     <t>facility_visit_reminder</t>
   </si>
   <si>
     <t>Reminder of Upcoming Health Facility Visit</t>
   </si>
   <si>
-    <t>reasons_not_on_fp</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
     <t>remind_note</t>
   </si>
   <si>
-    <t>Please remind the client to attend their ANC visit on &lt;calculate date&gt;.</t>
-  </si>
-  <si>
-    <t>Wants to get pregnant</t>
-  </si>
-  <si>
-    <t>Did not want FP</t>
+    <t>Please remind the client to attend their ANC visit on ${visit_date_for_task}.</t>
   </si>
   <si>
     <t>select_one remind_methods</t>
@@ -538,129 +667,18 @@
     <t>Did you remind the client in-person or by phone?</t>
   </si>
   <si>
-    <t>follow_up_methods</t>
-  </si>
-  <si>
-    <t>reasons_for_missing_visit</t>
-  </si>
-  <si>
-    <t>not_reminded</t>
-  </si>
-  <si>
-    <t>She was not reminded</t>
-  </si>
-  <si>
-    <t>travelled</t>
-  </si>
-  <si>
     <t>custom_translations</t>
   </si>
   <si>
-    <t>She had travelled</t>
-  </si>
-  <si>
-    <t>no_lab_results</t>
-  </si>
-  <si>
-    <t>No Lab results yet</t>
-  </si>
-  <si>
-    <t>too_early</t>
-  </si>
-  <si>
-    <t>It is too early to start clinic</t>
-  </si>
-  <si>
-    <t>relocated</t>
-  </si>
-  <si>
-    <t>Relocated</t>
-  </si>
-  <si>
-    <t>actions_taken</t>
-  </si>
-  <si>
-    <t>referred</t>
-  </si>
-  <si>
-    <t>Referred the mother</t>
-  </si>
-  <si>
-    <t>key_message</t>
-  </si>
-  <si>
-    <t>Provided key health message</t>
-  </si>
-  <si>
-    <t>accompany</t>
-  </si>
-  <si>
-    <t>Accompany the mother to facility</t>
-  </si>
-  <si>
-    <t>recent_foods</t>
-  </si>
-  <si>
-    <t>carbohydrates</t>
-  </si>
-  <si>
-    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>Body building foods: Milk, eggs, meat</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
-  </si>
-  <si>
-    <t>fruits</t>
-  </si>
-  <si>
-    <t>Fruits: Mangoes, ripe bananas, oranges</t>
-  </si>
-  <si>
     <t>select_one translate_woman_label</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>custom_woman_label_translator</t>
   </si>
   <si>
-    <t>None of the above</t>
-  </si>
-  <si>
-    <t>pos_neg</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
     <t>"woman"</t>
   </si>
   <si>
-    <t>reasons_to_discontinue</t>
-  </si>
-  <si>
-    <t>wants_to_get_pregnant</t>
-  </si>
-  <si>
     <t>custom_woman_label</t>
   </si>
   <si>
@@ -680,12 +698,6 @@
   </si>
   <si>
     <t>jr:choice-name(${custom_woman_start_label_translator},'${custom_woman_start_label_translator}')</t>
-  </si>
-  <si>
-    <t>feels_sick_when_using_it</t>
-  </si>
-  <si>
-    <t>Feels sick when using it</t>
   </si>
   <si>
     <t>o_how_reminded</t>
@@ -754,24 +766,24 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
     <font/>
     <font>
+      <b/>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -878,80 +890,83 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -962,9 +977,6 @@
     <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -974,16 +986,19 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1006,9 +1021,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -1209,28 +1221,28 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="9" t="s">
         <v>12</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -1244,7 +1256,7 @@
       <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="12" t="s">
         <v>23</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -1265,64 +1277,64 @@
       <c r="T1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="12" t="s">
         <v>30</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="12" t="s">
         <v>34</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AE1" s="17" t="s">
         <v>42</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG1" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH1" s="19"/>
       <c r="AI1" s="19"/>
       <c r="AJ1" s="19"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>51</v>
+      <c r="B2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="J2" s="26"/>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="25" t="s">
         <v>61</v>
       </c>
       <c r="M2" s="26"/>
@@ -1351,18 +1363,18 @@
       <c r="AJ2" s="26"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="25" t="s">
         <v>64</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
@@ -1374,13 +1386,13 @@
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21" t="s">
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25" t="s">
         <v>65</v>
       </c>
       <c r="AE3" s="26"/>
@@ -1391,18 +1403,18 @@
       <c r="AJ3" s="26"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="25" t="s">
         <v>67</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
-      <c r="L4" s="21"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
       <c r="O4" s="26"/>
@@ -1429,13 +1441,13 @@
       <c r="AJ4" s="26"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="28" t="s">
         <v>69</v>
       </c>
       <c r="J5" s="26"/>
@@ -1467,20 +1479,18 @@
       <c r="AJ5" s="26"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
@@ -1507,18 +1517,20 @@
       <c r="AJ6" s="26"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>74</v>
       </c>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="21"/>
+      <c r="L7" s="25" t="s">
+        <v>75</v>
+      </c>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
@@ -1545,18 +1557,18 @@
       <c r="AJ7" s="26"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>76</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
@@ -1583,13 +1595,13 @@
       <c r="AJ8" s="26"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="27" t="s">
         <v>78</v>
       </c>
       <c r="J9" s="26"/>
@@ -1621,18 +1633,18 @@
       <c r="AJ9" s="26"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="25" t="s">
         <v>80</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
@@ -1644,15 +1656,13 @@
       <c r="U10" s="26"/>
       <c r="V10" s="26"/>
       <c r="W10" s="26"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28">
-        <v>0.0</v>
-      </c>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
       <c r="AE10" s="26"/>
       <c r="AF10" s="26"/>
       <c r="AG10" s="26"/>
@@ -1661,18 +1671,18 @@
       <c r="AJ10" s="26"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="25" t="s">
         <v>82</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="21"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
@@ -1684,13 +1694,15 @@
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29">
+        <v>0.0</v>
+      </c>
       <c r="AE11" s="26"/>
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
@@ -1699,18 +1711,18 @@
       <c r="AJ11" s="26"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>84</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
@@ -1737,96 +1749,96 @@
       <c r="AJ12" s="26"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="21" t="s">
+      <c r="B14" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>68</v>
+      <c r="B15" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -1857,14 +1869,14 @@
       <c r="AJ15" s="26"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>103</v>
+      <c r="A16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
@@ -1895,14 +1907,14 @@
       <c r="AJ16" s="26"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>105</v>
+      <c r="B17" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>119</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
@@ -1933,13 +1945,15 @@
       <c r="AJ17" s="26"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="26"/>
+      <c r="A18" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
@@ -1969,11 +1983,11 @@
       <c r="AJ18" s="26"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>83</v>
+      <c r="A19" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="C19" s="26"/>
       <c r="J19" s="26"/>
@@ -2005,11 +2019,11 @@
       <c r="AJ19" s="26"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>83</v>
+      <c r="A20" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="C20" s="26"/>
       <c r="J20" s="26"/>
@@ -2041,11 +2055,11 @@
       <c r="AJ20" s="26"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>68</v>
+      <c r="A21" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="C21" s="26"/>
       <c r="J21" s="26"/>
@@ -2077,11 +2091,11 @@
       <c r="AJ21" s="26"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>50</v>
+      <c r="A22" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="C22" s="26"/>
       <c r="J22" s="26"/>
@@ -2106,49 +2120,43 @@
       <c r="AC22" s="26"/>
       <c r="AD22" s="26"/>
       <c r="AE22" s="26"/>
-      <c r="AF22" s="31" t="s">
-        <v>62</v>
-      </c>
+      <c r="AF22" s="26"/>
       <c r="AG22" s="26"/>
       <c r="AH22" s="26"/>
       <c r="AI22" s="26"/>
       <c r="AJ22" s="26"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
+      <c r="A23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
       <c r="AE23" s="26"/>
-      <c r="AF23" s="31" t="s">
+      <c r="AF23" s="28" t="s">
         <v>62</v>
       </c>
       <c r="AG23" s="26"/>
@@ -2158,13 +2166,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="32" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>142</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>138</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
@@ -2178,7 +2186,7 @@
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
@@ -2190,7 +2198,7 @@
       <c r="AC24" s="33"/>
       <c r="AD24" s="33"/>
       <c r="AE24" s="26"/>
-      <c r="AF24" s="31" t="s">
+      <c r="AF24" s="28" t="s">
         <v>62</v>
       </c>
       <c r="AG24" s="26"/>
@@ -2200,17 +2208,15 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="32" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="32" t="s">
-        <v>86</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="J25" s="32"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
@@ -2221,8 +2227,8 @@
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
-      <c r="U25" s="34" t="s">
-        <v>144</v>
+      <c r="U25" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
@@ -2234,7 +2240,7 @@
       <c r="AC25" s="33"/>
       <c r="AD25" s="33"/>
       <c r="AE25" s="26"/>
-      <c r="AF25" s="31" t="s">
+      <c r="AF25" s="28" t="s">
         <v>62</v>
       </c>
       <c r="AG25" s="26"/>
@@ -2243,40 +2249,42 @@
       <c r="AJ25" s="26"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>145</v>
+      <c r="A26" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
+        <v>142</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
       <c r="AE26" s="26"/>
-      <c r="AF26" s="31" t="s">
+      <c r="AF26" s="28" t="s">
         <v>62</v>
       </c>
       <c r="AG26" s="26"/>
@@ -2285,28 +2293,28 @@
       <c r="AJ26" s="26"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>138</v>
+      <c r="A27" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>142</v>
       </c>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
       <c r="U27" s="27" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
@@ -2318,7 +2326,7 @@
       <c r="AC27" s="26"/>
       <c r="AD27" s="26"/>
       <c r="AE27" s="26"/>
-      <c r="AF27" s="31" t="s">
+      <c r="AF27" s="28" t="s">
         <v>62</v>
       </c>
       <c r="AG27" s="26"/>
@@ -2327,28 +2335,28 @@
       <c r="AJ27" s="26"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="21" t="s">
-        <v>134</v>
+      <c r="A28" s="27" t="s">
+        <v>140</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="J28" s="21"/>
+        <v>142</v>
+      </c>
+      <c r="J28" s="26"/>
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
       <c r="U28" s="27" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="V28" s="26"/>
       <c r="W28" s="26"/>
@@ -2360,7 +2368,7 @@
       <c r="AC28" s="26"/>
       <c r="AD28" s="26"/>
       <c r="AE28" s="26"/>
-      <c r="AF28" s="31" t="s">
+      <c r="AF28" s="28" t="s">
         <v>62</v>
       </c>
       <c r="AG28" s="26"/>
@@ -2369,956 +2377,1044 @@
       <c r="AJ28" s="26"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
+      <c r="A29" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="J30" s="39"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
+      <c r="A30" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="J31" s="39"/>
+      <c r="A31" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
+        <v>49</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="J32" s="40"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="40"/>
+      <c r="AI32" s="40"/>
+      <c r="AJ32" s="40"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="40"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="40"/>
+      <c r="AH34" s="40"/>
+      <c r="AI34" s="40"/>
+      <c r="AJ34" s="40"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="44" t="s">
+      <c r="B35" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="43"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="43"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="43"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="43"/>
-      <c r="AE33" s="43"/>
-      <c r="AF33" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG33" s="43"/>
-      <c r="AH33" s="43"/>
-      <c r="AI33" s="43"/>
-      <c r="AJ33" s="43"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="V34" s="43"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="43"/>
-      <c r="AC34" s="43"/>
-      <c r="AD34" s="43"/>
-      <c r="AE34" s="43"/>
-      <c r="AF34" s="43"/>
-      <c r="AG34" s="43"/>
-      <c r="AH34" s="43"/>
-      <c r="AI34" s="43"/>
-      <c r="AJ34" s="43"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="45"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="46"/>
       <c r="O35" s="26"/>
       <c r="P35" s="26"/>
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
       <c r="S35" s="26"/>
       <c r="T35" s="26"/>
-      <c r="U35" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="V35" s="43"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="43"/>
-      <c r="Z35" s="43"/>
-      <c r="AA35" s="43"/>
-      <c r="AB35" s="43"/>
-      <c r="AC35" s="43"/>
-      <c r="AD35" s="43"/>
-      <c r="AE35" s="43"/>
-      <c r="AF35" s="43"/>
-      <c r="AG35" s="43"/>
-      <c r="AH35" s="43"/>
-      <c r="AI35" s="43"/>
-      <c r="AJ35" s="43"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44"/>
+      <c r="AJ35" s="44"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="43" t="s">
         <v>218</v>
       </c>
+      <c r="B36" s="28" t="s">
+        <v>219</v>
+      </c>
       <c r="C36" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="45"/>
+        <v>142</v>
+      </c>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="46"/>
       <c r="O36" s="26"/>
       <c r="P36" s="26"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="26"/>
       <c r="S36" s="26"/>
       <c r="T36" s="26"/>
-      <c r="U36" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="V36" s="43"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="43"/>
-      <c r="AC36" s="43"/>
-      <c r="AD36" s="43"/>
-      <c r="AE36" s="43"/>
-      <c r="AF36" s="43"/>
-      <c r="AG36" s="43"/>
-      <c r="AH36" s="43"/>
-      <c r="AI36" s="43"/>
-      <c r="AJ36" s="43"/>
+      <c r="U36" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="V36" s="44"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>220</v>
+      <c r="A37" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>221</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="45"/>
+        <v>142</v>
+      </c>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="46"/>
       <c r="O37" s="26"/>
       <c r="P37" s="26"/>
       <c r="Q37" s="26"/>
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
       <c r="T37" s="26"/>
-      <c r="U37" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="V37" s="43"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="43"/>
-      <c r="AA37" s="43"/>
-      <c r="AB37" s="43"/>
-      <c r="AC37" s="43"/>
-      <c r="AD37" s="43"/>
-      <c r="AE37" s="43"/>
-      <c r="AF37" s="43"/>
-      <c r="AG37" s="43"/>
-      <c r="AH37" s="43"/>
-      <c r="AI37" s="43"/>
-      <c r="AJ37" s="43"/>
+      <c r="U37" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="V37" s="44"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="48"/>
-      <c r="AA38" s="48"/>
-      <c r="AB38" s="48"/>
-      <c r="AC38" s="48"/>
-      <c r="AD38" s="48"/>
-      <c r="AE38" s="48"/>
-      <c r="AF38" s="48"/>
-      <c r="AG38" s="48"/>
-      <c r="AH38" s="48"/>
-      <c r="AI38" s="48"/>
-      <c r="AJ38" s="48"/>
+      <c r="A38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="V38" s="44"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="44"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="48"/>
-      <c r="AA39" s="48"/>
-      <c r="AB39" s="48"/>
-      <c r="AC39" s="48"/>
-      <c r="AD39" s="48"/>
-      <c r="AE39" s="48"/>
-      <c r="AF39" s="48"/>
-      <c r="AG39" s="48"/>
-      <c r="AH39" s="48"/>
-      <c r="AI39" s="48"/>
-      <c r="AJ39" s="48"/>
+      <c r="A39" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="V39" s="44"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="44"/>
+      <c r="AJ39" s="44"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="48"/>
+      <c r="AC40" s="48"/>
+      <c r="AD40" s="48"/>
+      <c r="AE40" s="48"/>
+      <c r="AF40" s="48"/>
+      <c r="AG40" s="48"/>
+      <c r="AH40" s="48"/>
+      <c r="AI40" s="48"/>
+      <c r="AJ40" s="48"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="48"/>
+      <c r="AA41" s="48"/>
+      <c r="AB41" s="48"/>
+      <c r="AC41" s="48"/>
+      <c r="AD41" s="48"/>
+      <c r="AE41" s="48"/>
+      <c r="AF41" s="48"/>
+      <c r="AG41" s="48"/>
+      <c r="AH41" s="48"/>
+      <c r="AI41" s="48"/>
+      <c r="AJ41" s="48"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="38"/>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="38"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="38"/>
-      <c r="AG41" s="38"/>
-      <c r="AH41" s="38"/>
-      <c r="AI41" s="38"/>
-      <c r="AJ41" s="38"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="38"/>
-      <c r="AG42" s="38"/>
-      <c r="AH42" s="38"/>
-      <c r="AI42" s="38"/>
-      <c r="AJ42" s="38"/>
+      <c r="B42" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="39"/>
+      <c r="AG42" s="39"/>
+      <c r="AH42" s="39"/>
+      <c r="AI42" s="39"/>
+      <c r="AJ42" s="39"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" s="52" t="s">
+      <c r="A43" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="45" t="s">
         <v>228</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="13"/>
-      <c r="AF43" s="38"/>
-      <c r="AG43" s="38"/>
-      <c r="AH43" s="38"/>
-      <c r="AI43" s="38"/>
-      <c r="AJ43" s="38"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="39"/>
+      <c r="AG43" s="39"/>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="39"/>
+      <c r="AJ43" s="39"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="44" t="s">
-        <v>134</v>
+      <c r="A44" s="45" t="s">
+        <v>140</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>230</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="38"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="38"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="39"/>
+      <c r="AG44" s="39"/>
+      <c r="AH44" s="39"/>
+      <c r="AI44" s="39"/>
+      <c r="AJ44" s="39"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="44" t="s">
+      <c r="A45" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="52" t="s">
         <v>232</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="38"/>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="38"/>
-      <c r="AI45" s="38"/>
-      <c r="AJ45" s="38"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="39"/>
+      <c r="AG45" s="39"/>
+      <c r="AH45" s="39"/>
+      <c r="AI45" s="39"/>
+      <c r="AJ45" s="39"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="44" t="s">
+      <c r="A46" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="52" t="s">
         <v>234</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="38"/>
-      <c r="AG46" s="38"/>
-      <c r="AH46" s="38"/>
-      <c r="AI46" s="38"/>
-      <c r="AJ46" s="38"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="39"/>
+      <c r="AG46" s="39"/>
+      <c r="AH46" s="39"/>
+      <c r="AI46" s="39"/>
+      <c r="AJ46" s="39"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="44" t="s">
+      <c r="A47" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="45" t="s">
         <v>236</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="38"/>
-      <c r="AG47" s="38"/>
-      <c r="AH47" s="38"/>
-      <c r="AI47" s="38"/>
-      <c r="AJ47" s="38"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="38"/>
-      <c r="AG48" s="38"/>
-      <c r="AH48" s="38"/>
-      <c r="AI48" s="38"/>
-      <c r="AJ48" s="38"/>
+      <c r="A48" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="39"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="38"/>
-      <c r="AG49" s="38"/>
-      <c r="AH49" s="38"/>
-      <c r="AI49" s="38"/>
-      <c r="AJ49" s="38"/>
+      <c r="A49" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39"/>
+      <c r="AH49" s="39"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="45"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="39"/>
+      <c r="AI50" s="39"/>
+      <c r="AJ50" s="39"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="39"/>
+      <c r="AG51" s="39"/>
+      <c r="AH51" s="39"/>
+      <c r="AI51" s="39"/>
+      <c r="AJ51" s="39"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U26:U28">
+  <conditionalFormatting sqref="U27:U29">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
+      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U26:U28">
+  <conditionalFormatting sqref="U27:U29">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND($U26 = "", $A25 = "calculate")</formula>
+      <formula>AND($U27 = "", $A26 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U26:U28">
+  <conditionalFormatting sqref="U27:U29">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($A25="end group", $B25 = "", $C25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "", $N25 = "", $U26 = "", $V25 = "", $W25 = "", $AD25 = "", $AE25 = "")</formula>
+      <formula>AND($A26="end group", $B26 = "", $C26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "", $N26 = "", $U27 = "", $V26 = "", $W26 = "", $AD26 = "", $AE26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE49 A2:C49 J2:AD49 AF2:AJ49">
+  <conditionalFormatting sqref="AE1:AE51 A2:C51 J2:AD51 AF2:AJ51">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(AE1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE49 A2:C49 J2:T49 U2:U25 V2:AD49 AF2:AJ49 U28:U49">
+  <conditionalFormatting sqref="AE1:AE51 A2:C51 J2:T51 U2:U26 V2:AD51 AF2:AJ51 U29:U51">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE49 A2:C49 J2:T49 U2:U25 V2:AD49 AF2:AJ49 U28:U49">
+  <conditionalFormatting sqref="AE1:AE51 A2:C51 J2:T51 U2:U26 V2:AD51 AF2:AJ51 U29:U51">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "", $N1 = "", $U1 = "", $V1 = "", $W1 = "", $AD1 = "", $AE1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE49 A2:C49 J2:AD49 AF2:AJ49">
+  <conditionalFormatting sqref="AE1:AE51 A2:C51 J2:AD51 AF2:AJ51">
     <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:T49 U2:U25 U28:U49">
+  <conditionalFormatting sqref="O2:T51 U2:U26 U29:U51">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>AND($U2 = "", $A2 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C49">
+  <conditionalFormatting sqref="C2:C51">
     <cfRule type="expression" dxfId="5" priority="9">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B49">
+  <conditionalFormatting sqref="B2:B51">
     <cfRule type="expression" dxfId="6" priority="10">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A49">
+  <conditionalFormatting sqref="A2:A51">
     <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B49">
+  <conditionalFormatting sqref="B2:B51">
     <cfRule type="expression" dxfId="8" priority="12">
-      <formula>COUNTIF($B$2:$B$135,B2)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$137,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1">
@@ -3326,13 +3422,13 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N49">
+  <conditionalFormatting sqref="N2:N51">
     <cfRule type="expression" dxfId="5" priority="14">
       <formula>AND(NOT($M2 = ""), $N2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J49">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J51">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3359,334 +3455,334 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="B2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="C3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="22"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="22"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="22"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="22"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="22"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="22"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="22"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="22"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="22"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="22"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="22"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="22"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="22"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="22"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="22"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="22"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="22"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="22"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="22"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="22"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="22"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="22"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="22"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="22"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="22"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="22"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="22"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="22"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="22"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="22"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="22"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="22"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="22"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="22"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="22"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="22"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="22"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="22"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="22"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="22"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="22"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="22"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="22"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="22"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="22"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="22"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="22"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="22"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="22"/>
+      <c r="C55" s="16"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="22"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="22"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="22"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="22"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="22"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="22"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="22"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="22"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="22"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="22"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="22"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="22"/>
+      <c r="C67" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3714,25 +3810,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3755,45 +3851,45 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="A2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="21">
         <f>NOW()</f>
-        <v>43728.47052</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
+        <v>43733.4283</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3819,1120 +3915,1120 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="A5" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="A6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="C6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="C7" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
+      <c r="C8" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="A9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
+      <c r="C9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="22" t="s">
+      <c r="C14" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="22" t="s">
+      <c r="C15" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="22" t="s">
+      <c r="C16" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="22" t="s">
+      <c r="B18" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="22" t="s">
+      <c r="C23" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
+      <c r="C25" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="22" t="s">
+      <c r="A26" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
+      <c r="C26" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="A27" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
+      <c r="C27" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
+      <c r="A28" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
+      <c r="A29" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="22" t="s">
+      <c r="A32" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4943,26 +5039,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4972,290 +5068,290 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
+      <c r="A48" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
+      <c r="A49" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>189</v>
+      <c r="A58" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>191</v>
+      <c r="A59" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>193</v>
+      <c r="A60" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>133</v>
+      <c r="A61" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>196</v>
+      <c r="A63" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>198</v>
+      <c r="A64" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>200</v>
+      <c r="A65" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>202</v>
+      <c r="A66" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>206</v>
+      <c r="A67" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B70" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>169</v>
+        <v>197</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pregnancy_facility_visit_reminder.xlsx
+++ b/config/default/forms/app/pregnancy_facility_visit_reminder.xlsx
@@ -19,18 +19,36 @@
     <t>list_name</t>
   </si>
   <si>
+    <t>form_title</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
+    <t>form_id</t>
+  </si>
+  <si>
     <t>label::en</t>
   </si>
   <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
     <t>label::hi</t>
   </si>
   <si>
@@ -115,40 +133,31 @@
     <t>media::image</t>
   </si>
   <si>
+    <t>Health facility ANC reminder</t>
+  </si>
+  <si>
     <t>instance::tag</t>
   </si>
   <si>
     <t>repeat_count</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>default_language</t>
+    <t>pregnancy_facility_visit_reminder</t>
   </si>
   <si>
     <t>cht::notes</t>
   </si>
   <si>
-    <t>Health facility ANC reminder</t>
+    <t>pages</t>
   </si>
   <si>
     <t>begin group</t>
   </si>
   <si>
-    <t>pregnancy_facility_visit_reminder</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
   <si>
     <t>inputs</t>
@@ -157,24 +166,21 @@
     <t>Patient</t>
   </si>
   <si>
-    <t>pages</t>
+    <t>remind_methods</t>
+  </si>
+  <si>
+    <t>in_person</t>
+  </si>
+  <si>
+    <t>In person</t>
   </si>
   <si>
     <t>./source = 'user'</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>field-list</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>remind_methods</t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -184,31 +190,43 @@
     <t>Source</t>
   </si>
   <si>
-    <t>in_person</t>
+    <t>by_phone</t>
+  </si>
+  <si>
+    <t>By phone</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>In person</t>
-  </si>
-  <si>
     <t>source_id</t>
   </si>
   <si>
     <t>Source ID</t>
   </si>
   <si>
+    <t>translate_woman_label</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>the woman</t>
+  </si>
+  <si>
     <t>source_visit_date</t>
   </si>
   <si>
     <t>Visit Date</t>
   </si>
   <si>
-    <t>by_phone</t>
-  </si>
-  <si>
-    <t>By phone</t>
+    <t>translate_woman_start_label</t>
+  </si>
+  <si>
+    <t>woman-start</t>
+  </si>
+  <si>
+    <t>The woman</t>
   </si>
   <si>
     <t>contact</t>
@@ -232,36 +250,18 @@
     <t>Name</t>
   </si>
   <si>
-    <t>translate_woman_label</t>
-  </si>
-  <si>
     <t>short_name</t>
   </si>
   <si>
-    <t>woman</t>
-  </si>
-  <si>
     <t>Short Name</t>
   </si>
   <si>
-    <t>the woman</t>
-  </si>
-  <si>
     <t>patient_id</t>
   </si>
   <si>
     <t>Patient ID</t>
   </si>
   <si>
-    <t>translate_woman_start_label</t>
-  </si>
-  <si>
-    <t>woman-start</t>
-  </si>
-  <si>
-    <t>The woman</t>
-  </si>
-  <si>
     <t>date_of_birth</t>
   </si>
   <si>
@@ -283,52 +283,157 @@
     <t>Parent ID</t>
   </si>
   <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>lmp_approximations</t>
+  </si>
+  <si>
+    <t>upto_2_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 2 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_3_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 3 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_4_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 4 Months Ago</t>
+  </si>
+  <si>
+    <t>between_5_and_6_months_ago</t>
+  </si>
+  <si>
+    <t>Between 5 And 6 Months Ago</t>
+  </si>
+  <si>
+    <t>between_7_and_8_months_ago</t>
+  </si>
+  <si>
+    <t>Between 7 And 8 Months Ago</t>
+  </si>
+  <si>
+    <t>trimester1_choices</t>
+  </si>
+  <si>
+    <t>eat_extra_meal</t>
+  </si>
+  <si>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+  </si>
+  <si>
+    <t>take_iron_and_folic_acid</t>
+  </si>
+  <si>
+    <t>Take iron and folic acid tablets</t>
+  </si>
+  <si>
     <t>chw_name</t>
   </si>
   <si>
     <t>CHW name</t>
   </si>
   <si>
+    <t>avoid_heavy_work</t>
+  </si>
+  <si>
+    <t>Avoid heavy work, rest more</t>
+  </si>
+  <si>
+    <t>sleep_under_bednet</t>
+  </si>
+  <si>
+    <t>Sleep under an insecticide treated bednet</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
     <t>CHW phone</t>
   </si>
   <si>
+    <t>go_for_anc_visit</t>
+  </si>
+  <si>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+  </si>
+  <si>
     <t>end group</t>
   </si>
   <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>develop_birth_plan</t>
+  </si>
+  <si>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+  </si>
+  <si>
+    <t>trimester2_choices</t>
+  </si>
+  <si>
+    <t>couselling_on_exclusive_breastfeeding</t>
+  </si>
+  <si>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>heart_condition</t>
+  </si>
+  <si>
+    <t>Heart condition</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>high_blood_pressure</t>
+  </si>
+  <si>
+    <t>High blood pressure</t>
+  </si>
+  <si>
+    <t>known_diabetes</t>
+  </si>
+  <si>
+    <t>Known diabetes</t>
   </si>
   <si>
     <t>calculate</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>lmp_approximations</t>
-  </si>
-  <si>
-    <t>upto_2_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 2 Months Ago</t>
-  </si>
-  <si>
-    <t>upto_3_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 3 Months Ago</t>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>hiv_statuses</t>
+  </si>
+  <si>
+    <t>known</t>
   </si>
   <si>
     <t>patient_age_in_years</t>
@@ -337,67 +442,13 @@
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t>upto_4_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 4 Months Ago</t>
-  </si>
-  <si>
-    <t>between_5_and_6_months_ago</t>
-  </si>
-  <si>
-    <t>Between 5 And 6 Months Ago</t>
-  </si>
-  <si>
-    <t>between_7_and_8_months_ago</t>
-  </si>
-  <si>
-    <t>Between 7 And 8 Months Ago</t>
-  </si>
-  <si>
-    <t>trimester1_choices</t>
-  </si>
-  <si>
-    <t>eat_extra_meal</t>
-  </si>
-  <si>
-    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+    <t>unknown</t>
   </si>
   <si>
     <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
   </si>
   <si>
-    <t>take_iron_and_folic_acid</t>
-  </si>
-  <si>
-    <t>Take iron and folic acid tablets</t>
-  </si>
-  <si>
-    <t>avoid_heavy_work</t>
-  </si>
-  <si>
-    <t>Avoid heavy work, rest more</t>
-  </si>
-  <si>
-    <t>sleep_under_bednet</t>
-  </si>
-  <si>
-    <t>Sleep under an insecticide treated bednet</t>
-  </si>
-  <si>
-    <t>go_for_anc_visit</t>
-  </si>
-  <si>
-    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
-  </si>
-  <si>
-    <t>develop_birth_plan</t>
-  </si>
-  <si>
-    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
-  </si>
-  <si>
-    <t>trimester2_choices</t>
+    <t>fp_methods</t>
   </si>
   <si>
     <t>patient_uuid</t>
@@ -409,75 +460,51 @@
     <t>../inputs/contact/patient_id</t>
   </si>
   <si>
-    <t>couselling_on_exclusive_breastfeeding</t>
-  </si>
-  <si>
     <t>patient_name</t>
   </si>
   <si>
-    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
-  </si>
-  <si>
     <t>../inputs/contact/name</t>
   </si>
   <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>heart_condition</t>
-  </si>
-  <si>
-    <t>Heart condition</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>high_blood_pressure</t>
-  </si>
-  <si>
-    <t>High blood pressure</t>
-  </si>
-  <si>
-    <t>known_diabetes</t>
-  </si>
-  <si>
-    <t>Known diabetes</t>
+    <t>Combined oral contraceptives</t>
   </si>
   <si>
     <t>patient_short_name</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>hiv_statuses</t>
-  </si>
-  <si>
-    <t>known</t>
+    <t>Progesterone only pills</t>
+  </si>
+  <si>
+    <t>Injectibles</t>
   </si>
   <si>
     <t>coalesce(../inputs/contact/short_name, ../facility_visit_reminder/custom_translations/custom_woman_label)</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
+    <t>Implants (2 rods)</t>
   </si>
   <si>
     <t>patient_short_name_start</t>
   </si>
   <si>
-    <t>fp_methods</t>
+    <t>IUD</t>
+  </si>
+  <si>
+    <t>Condoms</t>
+  </si>
+  <si>
+    <t>Tubal ligation</t>
   </si>
   <si>
     <t>coalesce(../inputs/contact/short_name, ../facility_visit_reminder/custom_translations/custom_woman_start_label)</t>
   </si>
   <si>
+    <t>Cycle beads</t>
+  </si>
+  <si>
     <t>pregnancy_uuid_ctx</t>
   </si>
   <si>
@@ -487,45 +514,18 @@
     <t>hiden</t>
   </si>
   <si>
-    <t>Combined oral contraceptives</t>
-  </si>
-  <si>
     <t>visit_date_for_task</t>
   </si>
   <si>
-    <t>Progesterone only pills</t>
-  </si>
-  <si>
-    <t>Injectibles</t>
-  </si>
-  <si>
-    <t>Implants (1 rod)</t>
+    <t>reasons_not_on_fp</t>
+  </si>
+  <si>
+    <t>Wants to get pregnant</t>
   </si>
   <si>
     <t>format-date-time(../inputs/source_visit_date, "%e %b, %Y")</t>
   </si>
   <si>
-    <t>Implants (2 rods)</t>
-  </si>
-  <si>
-    <t>IUD</t>
-  </si>
-  <si>
-    <t>Condoms</t>
-  </si>
-  <si>
-    <t>Tubal ligation</t>
-  </si>
-  <si>
-    <t>Cycle beads</t>
-  </si>
-  <si>
-    <t>reasons_not_on_fp</t>
-  </si>
-  <si>
-    <t>Wants to get pregnant</t>
-  </si>
-  <si>
     <t>Did not want FP</t>
   </si>
   <si>
@@ -541,12 +541,18 @@
     <t>She was not reminded</t>
   </si>
   <si>
+    <t>facility_visit_reminder</t>
+  </si>
+  <si>
     <t>travelled</t>
   </si>
   <si>
     <t>She had travelled</t>
   </si>
   <si>
+    <t>Reminder of Upcoming Health Facility Visit</t>
+  </si>
+  <si>
     <t>no_lab_results</t>
   </si>
   <si>
@@ -565,9 +571,6 @@
     <t>Relocated</t>
   </si>
   <si>
-    <t>facility_visit_reminder</t>
-  </si>
-  <si>
     <t>actions_taken</t>
   </si>
   <si>
@@ -589,12 +592,21 @@
     <t>Accompany the mother to facility</t>
   </si>
   <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>recent_foods</t>
   </si>
   <si>
+    <t>remind_note</t>
+  </si>
+  <si>
     <t>carbohydrates</t>
   </si>
   <si>
+    <t>Please remind the client to attend their ANC visit on ${visit_date_for_task}.</t>
+  </si>
+  <si>
     <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
   </si>
   <si>
@@ -616,7 +628,13 @@
     <t>Fruits: Mangoes, ripe bananas, oranges</t>
   </si>
   <si>
-    <t>Reminder of Upcoming Health Facility Visit</t>
+    <t>select_one remind_methods</t>
+  </si>
+  <si>
+    <t>remind_method</t>
+  </si>
+  <si>
+    <t>Did you remind the client in-person or by phone?</t>
   </si>
   <si>
     <t>none</t>
@@ -637,6 +655,9 @@
     <t>negative</t>
   </si>
   <si>
+    <t>custom_translations</t>
+  </si>
+  <si>
     <t>Negative</t>
   </si>
   <si>
@@ -652,27 +673,6 @@
     <t>Feels sick when using it</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>remind_note</t>
-  </si>
-  <si>
-    <t>Please remind the client to attend their ANC visit on ${visit_date_for_task}.</t>
-  </si>
-  <si>
-    <t>select_one remind_methods</t>
-  </si>
-  <si>
-    <t>remind_method</t>
-  </si>
-  <si>
-    <t>Did you remind the client in-person or by phone?</t>
-  </si>
-  <si>
-    <t>custom_translations</t>
-  </si>
-  <si>
     <t>select_one translate_woman_label</t>
   </si>
   <si>
@@ -718,31 +718,31 @@
     <t>__patient_uuid</t>
   </si>
   <si>
-    <t>../../inputs/contact/_id</t>
+    <t>../../../inputs/contact/_id</t>
   </si>
   <si>
     <t>__patient_id</t>
   </si>
   <si>
-    <t>../../patient_id</t>
+    <t>../../../inputs/contact/patient_id</t>
   </si>
   <si>
     <t>__household_uuid</t>
   </si>
   <si>
-    <t>../../inputs/contact/parent/_id</t>
+    <t>../../../inputs/contact/parent/_id</t>
   </si>
   <si>
     <t>__source</t>
   </si>
   <si>
-    <t>../../inputs/source</t>
+    <t>../../../inputs/source</t>
   </si>
   <si>
     <t>__source_id</t>
   </si>
   <si>
-    <t>../../inputs/source_id</t>
+    <t>../../../inputs/source_id</t>
   </si>
   <si>
     <t>__pregnancy_uuid</t>
@@ -780,18 +780,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
       <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -802,6 +798,10 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -848,26 +848,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -915,139 +915,139 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="14" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1112,1079 +1112,1079 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
+      <c r="AH1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14" t="s">
+      <c r="B3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
+      <c r="A4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
+      <c r="A5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
+      <c r="A6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
+      <c r="A7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
+      <c r="A9" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
+      <c r="A10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19">
         <v>0.0</v>
       </c>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
       <c r="AH14" s="29"/>
       <c r="AI14" s="29"/>
       <c r="AJ14" s="29"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="23"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
+      <c r="A16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
+      <c r="A17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
+      <c r="A18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="23"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
+      <c r="A19" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
+      <c r="A22" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
+      <c r="A23" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="30"/>
@@ -2226,13 +2226,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="33" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -2252,7 +2252,7 @@
       <c r="S25" s="34"/>
       <c r="T25" s="34"/>
       <c r="U25" s="34" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="V25" s="34"/>
       <c r="W25" s="34"/>
@@ -2265,7 +2265,7 @@
       <c r="AD25" s="34"/>
       <c r="AE25" s="34"/>
       <c r="AF25" s="35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG25" s="34"/>
       <c r="AH25" s="36"/>
@@ -2274,13 +2274,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="33" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
@@ -2300,7 +2300,7 @@
       <c r="S26" s="34"/>
       <c r="T26" s="34"/>
       <c r="U26" s="34" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="V26" s="34"/>
       <c r="W26" s="34"/>
@@ -2313,7 +2313,7 @@
       <c r="AD26" s="34"/>
       <c r="AE26" s="34"/>
       <c r="AF26" s="35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG26" s="34"/>
       <c r="AH26" s="36"/>
@@ -2322,13 +2322,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="33" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
@@ -2337,7 +2337,7 @@
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
       <c r="J27" s="34" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
@@ -2350,7 +2350,7 @@
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
       <c r="U27" s="35" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="V27" s="34"/>
       <c r="W27" s="34"/>
@@ -2363,7 +2363,7 @@
       <c r="AD27" s="34"/>
       <c r="AE27" s="34"/>
       <c r="AF27" s="35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG27" s="34"/>
       <c r="AH27" s="36"/>
@@ -2372,13 +2372,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="33" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -2398,7 +2398,7 @@
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
       <c r="U28" s="35" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="V28" s="34"/>
       <c r="W28" s="34"/>
@@ -2411,7 +2411,7 @@
       <c r="AD28" s="34"/>
       <c r="AE28" s="34"/>
       <c r="AF28" s="35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG28" s="34"/>
       <c r="AH28" s="36"/>
@@ -2420,13 +2420,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="37" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
@@ -2446,7 +2446,7 @@
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
       <c r="U29" s="35" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="V29" s="34"/>
       <c r="W29" s="34"/>
@@ -2459,7 +2459,7 @@
       <c r="AD29" s="34"/>
       <c r="AE29" s="34"/>
       <c r="AF29" s="35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG29" s="34"/>
       <c r="AH29" s="36"/>
@@ -2468,13 +2468,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="33" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
@@ -2494,7 +2494,7 @@
       <c r="S30" s="34"/>
       <c r="T30" s="34"/>
       <c r="U30" s="35" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="V30" s="34"/>
       <c r="W30" s="34"/>
@@ -2507,7 +2507,7 @@
       <c r="AD30" s="34"/>
       <c r="AE30" s="34"/>
       <c r="AF30" s="35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG30" s="34"/>
       <c r="AH30" s="36"/>
@@ -2516,13 +2516,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="33" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -2542,7 +2542,7 @@
       <c r="S31" s="34"/>
       <c r="T31" s="34"/>
       <c r="U31" s="34" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="V31" s="34"/>
       <c r="W31" s="34"/>
@@ -2555,7 +2555,7 @@
       <c r="AD31" s="34"/>
       <c r="AE31" s="34"/>
       <c r="AF31" s="35" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="AG31" s="34"/>
       <c r="AH31" s="38"/>
@@ -2564,13 +2564,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="37" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -2590,7 +2590,7 @@
       <c r="S32" s="34"/>
       <c r="T32" s="34"/>
       <c r="U32" s="35" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="V32" s="34"/>
       <c r="W32" s="34"/>
@@ -2648,184 +2648,184 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
+        <v>178</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
       <c r="K34" s="42"/>
-      <c r="L34" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="44"/>
-      <c r="AG34" s="44"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="45"/>
-      <c r="AJ34" s="45"/>
+      <c r="L34" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44"/>
+      <c r="AJ34" s="44"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="41" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="44"/>
+        <v>196</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="43"/>
       <c r="AF35" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG35" s="44"/>
-      <c r="AH35" s="45"/>
-      <c r="AI35" s="45"/>
-      <c r="AJ35" s="45"/>
+        <v>55</v>
+      </c>
+      <c r="AG35" s="43"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44"/>
+      <c r="AJ35" s="44"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="41" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="44"/>
-      <c r="AA36" s="44"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="44"/>
-      <c r="AD36" s="44"/>
-      <c r="AE36" s="44"/>
-      <c r="AF36" s="44"/>
-      <c r="AG36" s="44"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="45"/>
+        <v>206</v>
+      </c>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="43"/>
+      <c r="AD36" s="43"/>
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="43"/>
+      <c r="AG36" s="43"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
+        <v>141</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
       <c r="L37" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
+        <v>55</v>
+      </c>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
       <c r="U37" s="42"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="44"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="44"/>
-      <c r="AE37" s="44"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="43"/>
       <c r="AF37" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG37" s="44"/>
+        <v>55</v>
+      </c>
+      <c r="AG37" s="43"/>
       <c r="AH37" s="46"/>
       <c r="AI37" s="46"/>
       <c r="AJ37" s="46"/>
@@ -2837,87 +2837,87 @@
       <c r="B38" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
+      <c r="C38" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
       <c r="L38" s="42"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
       <c r="U38" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="44"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="44"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43"/>
       <c r="AH38" s="46"/>
       <c r="AI38" s="46"/>
       <c r="AJ38" s="46"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="41" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B39" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
+      <c r="C39" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
       <c r="L39" s="42"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
       <c r="U39" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="44"/>
-      <c r="AF39" s="44"/>
-      <c r="AG39" s="44"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="43"/>
+      <c r="AG39" s="43"/>
       <c r="AH39" s="46"/>
       <c r="AI39" s="46"/>
       <c r="AJ39" s="46"/>
@@ -2929,167 +2929,167 @@
       <c r="B40" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="C40" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
+      <c r="C40" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
       <c r="L40" s="42"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
       <c r="U40" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="V40" s="44"/>
-      <c r="W40" s="44"/>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="44"/>
-      <c r="AA40" s="44"/>
-      <c r="AB40" s="44"/>
-      <c r="AC40" s="44"/>
-      <c r="AD40" s="44"/>
-      <c r="AE40" s="44"/>
-      <c r="AF40" s="44"/>
-      <c r="AG40" s="44"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="43"/>
       <c r="AH40" s="46"/>
       <c r="AI40" s="46"/>
       <c r="AJ40" s="46"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="41" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B41" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="C41" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
+      <c r="C41" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
       <c r="L41" s="42"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
       <c r="U41" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="44"/>
-      <c r="AF41" s="44"/>
-      <c r="AG41" s="44"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="43"/>
       <c r="AH41" s="46"/>
       <c r="AI41" s="46"/>
       <c r="AJ41" s="46"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="41" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B42" s="40"/>
       <c r="C42" s="42"/>
-      <c r="D42" s="44"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="42"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
       <c r="K42" s="42"/>
       <c r="L42" s="42"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
-      <c r="AA42" s="44"/>
-      <c r="AB42" s="44"/>
-      <c r="AC42" s="44"/>
-      <c r="AD42" s="44"/>
-      <c r="AE42" s="44"/>
-      <c r="AF42" s="44"/>
-      <c r="AG42" s="44"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="43"/>
+      <c r="AE42" s="43"/>
+      <c r="AF42" s="43"/>
+      <c r="AG42" s="43"/>
       <c r="AH42" s="47"/>
       <c r="AI42" s="47"/>
       <c r="AJ42" s="47"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="40" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B43" s="40"/>
       <c r="C43" s="42"/>
-      <c r="D43" s="44"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="42"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
       <c r="K43" s="42"/>
       <c r="L43" s="42"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="44"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="44"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="43"/>
+      <c r="AE43" s="43"/>
+      <c r="AF43" s="43"/>
+      <c r="AG43" s="43"/>
       <c r="AH43" s="47"/>
       <c r="AI43" s="47"/>
       <c r="AJ43" s="47"/>
@@ -3134,13 +3134,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="50"/>
@@ -3151,7 +3151,7 @@
       <c r="J45" s="51"/>
       <c r="K45" s="51"/>
       <c r="L45" s="52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M45" s="51"/>
       <c r="N45" s="51"/>
@@ -3173,7 +3173,7 @@
       <c r="AD45" s="51"/>
       <c r="AE45" s="51"/>
       <c r="AF45" s="53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG45" s="50"/>
       <c r="AH45" s="54"/>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="49" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B46" s="55" t="s">
         <v>229</v>
@@ -3228,13 +3228,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47" s="57" t="s">
         <v>232</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="59"/>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="49" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B48" s="55" t="s">
         <v>233</v>
@@ -3295,7 +3295,7 @@
       <c r="R48" s="51"/>
       <c r="S48" s="51"/>
       <c r="T48" s="51"/>
-      <c r="U48" s="50" t="s">
+      <c r="U48" s="59" t="s">
         <v>234</v>
       </c>
       <c r="V48" s="51"/>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="49" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B49" s="55" t="s">
         <v>235</v>
@@ -3339,7 +3339,7 @@
       <c r="R49" s="51"/>
       <c r="S49" s="51"/>
       <c r="T49" s="51"/>
-      <c r="U49" s="50" t="s">
+      <c r="U49" s="59" t="s">
         <v>236</v>
       </c>
       <c r="V49" s="51"/>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="49" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B50" s="55" t="s">
         <v>237</v>
@@ -3383,7 +3383,7 @@
       <c r="R50" s="51"/>
       <c r="S50" s="51"/>
       <c r="T50" s="51"/>
-      <c r="U50" s="50" t="s">
+      <c r="U50" s="59" t="s">
         <v>238</v>
       </c>
       <c r="V50" s="51"/>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="49" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B51" s="55" t="s">
         <v>239</v>
@@ -3427,7 +3427,7 @@
       <c r="R51" s="51"/>
       <c r="S51" s="51"/>
       <c r="T51" s="51"/>
-      <c r="U51" s="50" t="s">
+      <c r="U51" s="59" t="s">
         <v>240</v>
       </c>
       <c r="V51" s="51"/>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="49" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B52" s="55" t="s">
         <v>241</v>
@@ -3471,7 +3471,7 @@
       <c r="R52" s="51"/>
       <c r="S52" s="51"/>
       <c r="T52" s="51"/>
-      <c r="U52" s="50" t="s">
+      <c r="U52" s="59" t="s">
         <v>242</v>
       </c>
       <c r="V52" s="51"/>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="49" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B53" s="55" t="s">
         <v>243</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="57" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B54" s="57" t="s">
         <v>232</v>
@@ -3578,10 +3578,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="57" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="58"/>
@@ -3652,329 +3652,329 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="B5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>76</v>
+      <c r="C5" s="27" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>81</v>
+      <c r="A6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="24"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="24"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="24"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="24"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="24"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="24"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="24"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="24"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="24"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="24"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="24"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="24"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="24"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="24"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="24"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="24"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="24"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="24"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="24"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="24"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="24"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="24"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="24"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="24"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="24"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="24"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="24"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="24"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="24"/>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="24"/>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="24"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="24"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="24"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="24"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="24"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="24"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="24"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="24"/>
+      <c r="C44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="24"/>
+      <c r="C45" s="22"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="24"/>
+      <c r="C46" s="22"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="24"/>
+      <c r="C47" s="22"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="24"/>
+      <c r="C48" s="22"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="24"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="24"/>
+      <c r="C50" s="22"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="24"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="24"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="24"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="24"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="24"/>
+      <c r="C55" s="22"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="24"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="24"/>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="24"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="24"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="24"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="24"/>
+      <c r="C61" s="22"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="24"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="24"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="24"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="24"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="24"/>
+      <c r="C66" s="22"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="24"/>
+      <c r="C67" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4002,25 +4002,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4043,45 +4043,45 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10">
+        <f>NOW()</f>
+        <v>43748.60719</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="13">
-        <f>NOW()</f>
-        <v>43747.5279</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4112,1115 +4112,1115 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B6" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="B23" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="24" t="s">
+      <c r="C23" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="24" t="s">
+      <c r="B25" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="24" t="s">
+      <c r="C25" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="24" t="s">
+      <c r="B26" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C27" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="24" t="s">
+      <c r="C28" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C29" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="24" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="B31" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="24" t="s">
+      <c r="C31" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
+      <c r="C32" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -5231,19 +5231,19 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
@@ -5260,66 +5260,66 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="26" t="s">
+      <c r="B48" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
+      <c r="C49" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
@@ -5338,10 +5338,10 @@
         <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5349,10 +5349,10 @@
         <v>172</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5360,10 +5360,10 @@
         <v>172</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5371,10 +5371,10 @@
         <v>172</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5382,168 +5382,168 @@
         <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B58" s="26" t="s">
+      <c r="A58" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="B58" s="24" t="s">
         <v>186</v>
       </c>
+      <c r="C58" s="24" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C59" s="26" t="s">
+      <c r="A59" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="24" t="s">
         <v>188</v>
       </c>
+      <c r="C59" s="24" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C60" s="26" t="s">
+      <c r="A60" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>190</v>
       </c>
+      <c r="C60" s="24" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>146</v>
+      <c r="A61" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C63" s="26" t="s">
+      <c r="A63" s="13" t="s">
         <v>193</v>
       </c>
+      <c r="B63" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>195</v>
+      <c r="A64" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>197</v>
+      <c r="A65" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>199</v>
+      <c r="A66" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>202</v>
+      <c r="A67" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>169</v>
+        <v>216</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pregnancy_facility_visit_reminder.xlsx
+++ b/config/default/forms/app/pregnancy_facility_visit_reminder.xlsx
@@ -14,125 +14,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="245">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
   <si>
     <t>form_title</t>
   </si>
   <si>
-    <t>list_name</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label::en</t>
+  </si>
+  <si>
+    <t>label::hi</t>
+  </si>
+  <si>
+    <t>label::id</t>
+  </si>
+  <si>
+    <t>label::sw</t>
+  </si>
+  <si>
+    <t>label::ne</t>
+  </si>
+  <si>
+    <t>label::es</t>
+  </si>
+  <si>
+    <t>label::fr</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
   </si>
   <si>
     <t>form_id</t>
   </si>
   <si>
+    <t>appearance</t>
+  </si>
+  <si>
     <t>version</t>
   </si>
   <si>
+    <t>constraint</t>
+  </si>
+  <si>
     <t>style</t>
   </si>
   <si>
+    <t>constraint_message::en</t>
+  </si>
+  <si>
     <t>path</t>
   </si>
   <si>
+    <t>constraint_message::hi</t>
+  </si>
+  <si>
     <t>instance_name</t>
   </si>
   <si>
+    <t>constraint_message::id</t>
+  </si>
+  <si>
     <t>default_language</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>label::en</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>label::hi</t>
-  </si>
-  <si>
-    <t>label::id</t>
+    <t>constraint_message::sw</t>
+  </si>
+  <si>
+    <t>constraint_message::ne</t>
+  </si>
+  <si>
+    <t>constraint_message::es</t>
+  </si>
+  <si>
+    <t>constraint_message::fr</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint::en</t>
+  </si>
+  <si>
+    <t>hint::hi</t>
+  </si>
+  <si>
+    <t>hint::id</t>
+  </si>
+  <si>
+    <t>hint::sw</t>
+  </si>
+  <si>
+    <t>hint::ne</t>
+  </si>
+  <si>
+    <t>hint::es</t>
+  </si>
+  <si>
+    <t>hint::fr</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
   <si>
     <t>Health facility ANC reminder</t>
   </si>
   <si>
-    <t>label::sw</t>
-  </si>
-  <si>
-    <t>label::ne</t>
-  </si>
-  <si>
-    <t>label::es</t>
-  </si>
-  <si>
-    <t>label::fr</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message::en</t>
-  </si>
-  <si>
-    <t>constraint_message::hi</t>
-  </si>
-  <si>
-    <t>constraint_message::id</t>
-  </si>
-  <si>
-    <t>constraint_message::sw</t>
-  </si>
-  <si>
-    <t>constraint_message::ne</t>
-  </si>
-  <si>
-    <t>constraint_message::es</t>
-  </si>
-  <si>
-    <t>constraint_message::fr</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
-    <t>hint::en</t>
-  </si>
-  <si>
-    <t>hint::hi</t>
-  </si>
-  <si>
-    <t>hint::id</t>
-  </si>
-  <si>
-    <t>hint::sw</t>
-  </si>
-  <si>
-    <t>hint::ne</t>
-  </si>
-  <si>
-    <t>hint::es</t>
-  </si>
-  <si>
-    <t>hint::fr</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
     <t>media::image</t>
   </si>
   <si>
@@ -148,9 +148,18 @@
     <t>pregnancy_facility_visit_reminder</t>
   </si>
   <si>
+    <t>remind_methods</t>
+  </si>
+  <si>
     <t>begin group</t>
   </si>
   <si>
+    <t>in_person</t>
+  </si>
+  <si>
+    <t>In person</t>
+  </si>
+  <si>
     <t>inputs</t>
   </si>
   <si>
@@ -160,16 +169,31 @@
     <t>pages</t>
   </si>
   <si>
+    <t>by_phone</t>
+  </si>
+  <si>
+    <t>By phone</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
     <t>./source = 'user'</t>
   </si>
   <si>
     <t>field-list</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>en</t>
+    <t>translate_woman_label</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>the woman</t>
   </si>
   <si>
     <t>hidden</t>
@@ -181,13 +205,13 @@
     <t>Source</t>
   </si>
   <si>
-    <t>remind_methods</t>
-  </si>
-  <si>
-    <t>in_person</t>
-  </si>
-  <si>
-    <t>In person</t>
+    <t>translate_woman_start_label</t>
+  </si>
+  <si>
+    <t>woman-start</t>
+  </si>
+  <si>
+    <t>The woman</t>
   </si>
   <si>
     <t>user</t>
@@ -199,39 +223,15 @@
     <t>Source ID</t>
   </si>
   <si>
-    <t>by_phone</t>
-  </si>
-  <si>
-    <t>By phone</t>
-  </si>
-  <si>
-    <t>translate_woman_label</t>
-  </si>
-  <si>
     <t>source_visit_date</t>
   </si>
   <si>
     <t>Visit Date</t>
   </si>
   <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>the woman</t>
-  </si>
-  <si>
-    <t>translate_woman_start_label</t>
-  </si>
-  <si>
-    <t>woman-start</t>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
-    <t>The woman</t>
-  </si>
-  <si>
     <t>db:person</t>
   </si>
   <si>
@@ -247,76 +247,124 @@
     <t>Name</t>
   </si>
   <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>short_name</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Short Name</t>
   </si>
   <si>
+    <t>lmp_approximations</t>
+  </si>
+  <si>
+    <t>upto_2_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 2 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_3_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 3 Months Ago</t>
+  </si>
+  <si>
     <t>patient_id</t>
   </si>
   <si>
     <t>Patient ID</t>
   </si>
   <si>
+    <t>upto_4_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 4 Months Ago</t>
+  </si>
+  <si>
+    <t>between_5_and_6_months_ago</t>
+  </si>
+  <si>
+    <t>Between 5 And 6 Months Ago</t>
+  </si>
+  <si>
     <t>date_of_birth</t>
   </si>
   <si>
     <t>Date of Birth</t>
   </si>
   <si>
+    <t>between_7_and_8_months_ago</t>
+  </si>
+  <si>
+    <t>Between 7 And 8 Months Ago</t>
+  </si>
+  <si>
+    <t>trimester1_choices</t>
+  </si>
+  <si>
     <t>sex</t>
   </si>
   <si>
+    <t>eat_extra_meal</t>
+  </si>
+  <si>
     <t>Sex</t>
   </si>
   <si>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+  </si>
+  <si>
     <t>parent</t>
   </si>
   <si>
+    <t>take_iron_and_folic_acid</t>
+  </si>
+  <si>
+    <t>Take iron and folic acid tablets</t>
+  </si>
+  <si>
     <t>Parent ID</t>
   </si>
   <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>lmp_approximations</t>
-  </si>
-  <si>
-    <t>upto_2_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 2 Months Ago</t>
-  </si>
-  <si>
-    <t>upto_3_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 3 Months Ago</t>
-  </si>
-  <si>
-    <t>upto_4_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 4 Months Ago</t>
-  </si>
-  <si>
-    <t>between_5_and_6_months_ago</t>
-  </si>
-  <si>
-    <t>Between 5 And 6 Months Ago</t>
+    <t>avoid_heavy_work</t>
+  </si>
+  <si>
+    <t>Avoid heavy work, rest more</t>
+  </si>
+  <si>
+    <t>sleep_under_bednet</t>
+  </si>
+  <si>
+    <t>Sleep under an insecticide treated bednet</t>
+  </si>
+  <si>
+    <t>go_for_anc_visit</t>
+  </si>
+  <si>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+  </si>
+  <si>
+    <t>develop_birth_plan</t>
+  </si>
+  <si>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+  </si>
+  <si>
+    <t>trimester2_choices</t>
   </si>
   <si>
     <t>chw_name</t>
@@ -325,10 +373,19 @@
     <t>CHW name</t>
   </si>
   <si>
-    <t>between_7_and_8_months_ago</t>
-  </si>
-  <si>
-    <t>Between 7 And 8 Months Ago</t>
+    <t>couselling_on_exclusive_breastfeeding</t>
+  </si>
+  <si>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>heart_condition</t>
+  </si>
+  <si>
+    <t>Heart condition</t>
   </si>
   <si>
     <t>phone</t>
@@ -337,78 +394,21 @@
     <t>CHW phone</t>
   </si>
   <si>
-    <t>trimester1_choices</t>
-  </si>
-  <si>
-    <t>eat_extra_meal</t>
-  </si>
-  <si>
-    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
-  </si>
-  <si>
-    <t>take_iron_and_folic_acid</t>
-  </si>
-  <si>
-    <t>Take iron and folic acid tablets</t>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>high_blood_pressure</t>
+  </si>
+  <si>
+    <t>High blood pressure</t>
   </si>
   <si>
     <t>end group</t>
   </si>
   <si>
-    <t>avoid_heavy_work</t>
-  </si>
-  <si>
-    <t>Avoid heavy work, rest more</t>
-  </si>
-  <si>
-    <t>sleep_under_bednet</t>
-  </si>
-  <si>
-    <t>Sleep under an insecticide treated bednet</t>
-  </si>
-  <si>
-    <t>go_for_anc_visit</t>
-  </si>
-  <si>
-    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
-  </si>
-  <si>
-    <t>develop_birth_plan</t>
-  </si>
-  <si>
-    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
-  </si>
-  <si>
-    <t>trimester2_choices</t>
-  </si>
-  <si>
-    <t>couselling_on_exclusive_breastfeeding</t>
-  </si>
-  <si>
-    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
-  </si>
-  <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>heart_condition</t>
-  </si>
-  <si>
-    <t>Heart condition</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>high_blood_pressure</t>
-  </si>
-  <si>
-    <t>High blood pressure</t>
-  </si>
-  <si>
     <t>known_diabetes</t>
   </si>
   <si>
@@ -421,30 +421,57 @@
     <t>Other</t>
   </si>
   <si>
+    <t>hiv_statuses</t>
+  </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>fp_methods</t>
+  </si>
+  <si>
     <t>calculate</t>
   </si>
   <si>
-    <t>hiv_statuses</t>
-  </si>
-  <si>
-    <t>known</t>
-  </si>
-  <si>
     <t>patient_age_in_years</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>Combined oral contraceptives</t>
+  </si>
+  <si>
+    <t>Progesterone only pills</t>
+  </si>
+  <si>
+    <t>Injectibles</t>
   </si>
   <si>
     <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
   </si>
   <si>
-    <t>fp_methods</t>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
+    <t>Implants (2 rods)</t>
+  </si>
+  <si>
+    <t>IUD</t>
+  </si>
+  <si>
+    <t>Condoms</t>
+  </si>
+  <si>
+    <t>Tubal ligation</t>
   </si>
   <si>
     <t>patient_uuid</t>
   </si>
   <si>
+    <t>Cycle beads</t>
+  </si>
+  <si>
     <t>../inputs/contact/_id</t>
   </si>
   <si>
@@ -463,67 +490,154 @@
     <t>coalesce(../inputs/contact/short_name, ../facility_visit_reminder/custom_translations/custom_woman_label)</t>
   </si>
   <si>
-    <t>Combined oral contraceptives</t>
-  </si>
-  <si>
     <t>patient_short_name_start</t>
   </si>
   <si>
+    <t>reasons_not_on_fp</t>
+  </si>
+  <si>
     <t>coalesce(../inputs/contact/short_name, ../facility_visit_reminder/custom_translations/custom_woman_start_label)</t>
   </si>
   <si>
-    <t>Progesterone only pills</t>
+    <t>Wants to get pregnant</t>
   </si>
   <si>
     <t>pregnancy_uuid_ctx</t>
   </si>
   <si>
-    <t>Injectibles</t>
-  </si>
-  <si>
     <t>if(instance('contact-summary')/context/pregnancy_uuid != '', instance('contact-summary')/context/pregnancy_uuid, .)</t>
   </si>
   <si>
-    <t>Implants (1 rod)</t>
-  </si>
-  <si>
-    <t>Implants (2 rods)</t>
-  </si>
-  <si>
-    <t>IUD</t>
+    <t>Did not want FP</t>
+  </si>
+  <si>
+    <t>follow_up_methods</t>
   </si>
   <si>
     <t>visit_date_for_task</t>
   </si>
   <si>
-    <t>Condoms</t>
-  </si>
-  <si>
     <t>format-date-time(../inputs/source_visit_date, "%e %b, %Y")</t>
   </si>
   <si>
-    <t>Tubal ligation</t>
-  </si>
-  <si>
-    <t>Cycle beads</t>
+    <t>reasons_for_missing_visit</t>
+  </si>
+  <si>
+    <t>not_reminded</t>
+  </si>
+  <si>
+    <t>She was not reminded</t>
+  </si>
+  <si>
+    <t>travelled</t>
+  </si>
+  <si>
+    <t>She had travelled</t>
+  </si>
+  <si>
+    <t>no_lab_results</t>
+  </si>
+  <si>
+    <t>No Lab results yet</t>
+  </si>
+  <si>
+    <t>too_early</t>
+  </si>
+  <si>
+    <t>It is too early to start clinic</t>
+  </si>
+  <si>
+    <t>relocated</t>
+  </si>
+  <si>
+    <t>Relocated</t>
+  </si>
+  <si>
+    <t>actions_taken</t>
+  </si>
+  <si>
+    <t>referred</t>
+  </si>
+  <si>
+    <t>Referred the mother</t>
+  </si>
+  <si>
+    <t>key_message</t>
+  </si>
+  <si>
+    <t>Provided key health message</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>Accompany the mother to facility</t>
   </si>
   <si>
     <t>facility_visit_reminder</t>
   </si>
   <si>
+    <t>recent_foods</t>
+  </si>
+  <si>
+    <t>carbohydrates</t>
+  </si>
+  <si>
+    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>Body building foods: Milk, eggs, meat</t>
+  </si>
+  <si>
     <t>Reminder of Upcoming Health Facility Visit</t>
   </si>
   <si>
-    <t>reasons_not_on_fp</t>
-  </si>
-  <si>
-    <t>Wants to get pregnant</t>
-  </si>
-  <si>
-    <t>Did not want FP</t>
-  </si>
-  <si>
-    <t>follow_up_methods</t>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>Fruits: Mangoes, ripe bananas, oranges</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>pos_neg</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>reasons_to_discontinue</t>
+  </si>
+  <si>
+    <t>wants_to_get_pregnant</t>
+  </si>
+  <si>
+    <t>feels_sick_when_using_it</t>
+  </si>
+  <si>
+    <t>Feels sick when using it</t>
   </si>
   <si>
     <t>note</t>
@@ -544,129 +658,21 @@
     <t>Did you remind the client in-person or by phone?</t>
   </si>
   <si>
-    <t>reasons_for_missing_visit</t>
-  </si>
-  <si>
-    <t>not_reminded</t>
-  </si>
-  <si>
-    <t>She was not reminded</t>
-  </si>
-  <si>
-    <t>travelled</t>
-  </si>
-  <si>
-    <t>She had travelled</t>
-  </si>
-  <si>
-    <t>no_lab_results</t>
-  </si>
-  <si>
-    <t>No Lab results yet</t>
-  </si>
-  <si>
-    <t>too_early</t>
-  </si>
-  <si>
-    <t>It is too early to start clinic</t>
-  </si>
-  <si>
     <t>custom_translations</t>
   </si>
   <si>
-    <t>relocated</t>
-  </si>
-  <si>
-    <t>Relocated</t>
-  </si>
-  <si>
-    <t>actions_taken</t>
-  </si>
-  <si>
-    <t>referred</t>
-  </si>
-  <si>
-    <t>Referred the mother</t>
-  </si>
-  <si>
-    <t>key_message</t>
-  </si>
-  <si>
-    <t>Provided key health message</t>
-  </si>
-  <si>
-    <t>accompany</t>
-  </si>
-  <si>
-    <t>Accompany the mother to facility</t>
-  </si>
-  <si>
-    <t>recent_foods</t>
-  </si>
-  <si>
-    <t>carbohydrates</t>
-  </si>
-  <si>
-    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>Body building foods: Milk, eggs, meat</t>
-  </si>
-  <si>
     <t>select_one translate_woman_label</t>
   </si>
   <si>
     <t>custom_woman_label_translator</t>
   </si>
   <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
-  </si>
-  <si>
-    <t>fruits</t>
-  </si>
-  <si>
-    <t>Fruits: Mangoes, ripe bananas, oranges</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>None of the above</t>
-  </si>
-  <si>
     <t>"woman"</t>
   </si>
   <si>
-    <t>pos_neg</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
     <t>custom_woman_label</t>
   </si>
   <si>
-    <t>reasons_to_discontinue</t>
-  </si>
-  <si>
-    <t>wants_to_get_pregnant</t>
-  </si>
-  <si>
     <t>jr:choice-name(${custom_woman_label_translator},'${custom_woman_label_translator}')</t>
   </si>
   <si>
@@ -674,12 +680,6 @@
   </si>
   <si>
     <t>custom_woman_start_label_translator</t>
-  </si>
-  <si>
-    <t>feels_sick_when_using_it</t>
-  </si>
-  <si>
-    <t>Feels sick when using it</t>
   </si>
   <si>
     <t>"woman-start"</t>
@@ -766,6 +766,11 @@
     </font>
     <font>
       <b/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -775,12 +780,10 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
-      <b/>
-      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
       <sz val="10.0"/>
@@ -793,9 +796,6 @@
     </font>
     <font>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -836,20 +836,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -868,6 +856,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -911,66 +911,53 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -978,85 +965,98 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="14" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1120,1080 +1120,1080 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="B2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="C2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
+      <c r="A3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
+      <c r="B4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
+      <c r="A5" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
+      <c r="A6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
+      <c r="A10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16">
+      <c r="A11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23">
         <v>0.0</v>
       </c>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
+      <c r="A12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
+      <c r="A13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
+      <c r="C14" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
       <c r="AH14" s="30"/>
       <c r="AI14" s="30"/>
       <c r="AJ14" s="30"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
+      <c r="A15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="20"/>
-      <c r="AJ16" s="20"/>
+      <c r="A16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
+      <c r="A17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
-      <c r="AJ18" s="20"/>
+      <c r="A18" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
+      <c r="A19" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
+      <c r="A20" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
+      <c r="A21" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
+      <c r="A22" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="20"/>
-      <c r="AI23" s="20"/>
-      <c r="AJ23" s="20"/>
+      <c r="A23" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="31"/>
@@ -2235,13 +2235,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="34" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -2261,7 +2261,7 @@
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
       <c r="U25" s="35" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
@@ -2274,7 +2274,7 @@
       <c r="AD25" s="35"/>
       <c r="AE25" s="35"/>
       <c r="AF25" s="36" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AG25" s="35"/>
       <c r="AH25" s="37"/>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="34" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -2309,7 +2309,7 @@
       <c r="S26" s="35"/>
       <c r="T26" s="35"/>
       <c r="U26" s="35" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
@@ -2322,7 +2322,7 @@
       <c r="AD26" s="35"/>
       <c r="AE26" s="35"/>
       <c r="AF26" s="36" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AG26" s="35"/>
       <c r="AH26" s="37"/>
@@ -2331,13 +2331,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -2357,7 +2357,7 @@
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="36" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
@@ -2370,7 +2370,7 @@
       <c r="AD27" s="35"/>
       <c r="AE27" s="35"/>
       <c r="AF27" s="36" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AG27" s="35"/>
       <c r="AH27" s="37"/>
@@ -2379,13 +2379,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="34" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -2405,7 +2405,7 @@
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="36" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
@@ -2418,7 +2418,7 @@
       <c r="AD28" s="35"/>
       <c r="AE28" s="35"/>
       <c r="AF28" s="36" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AG28" s="35"/>
       <c r="AH28" s="37"/>
@@ -2427,13 +2427,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="38" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -2453,7 +2453,7 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="36" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
@@ -2466,7 +2466,7 @@
       <c r="AD29" s="35"/>
       <c r="AE29" s="35"/>
       <c r="AF29" s="36" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AG29" s="35"/>
       <c r="AH29" s="37"/>
@@ -2475,13 +2475,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="34" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -2501,7 +2501,7 @@
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="36" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
@@ -2514,7 +2514,7 @@
       <c r="AD30" s="35"/>
       <c r="AE30" s="35"/>
       <c r="AF30" s="36" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AG30" s="35"/>
       <c r="AH30" s="37"/>
@@ -2523,13 +2523,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="34" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -2549,7 +2549,7 @@
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
       <c r="U31" s="35" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
@@ -2569,13 +2569,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="38" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -2595,7 +2595,7 @@
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
       <c r="U32" s="36" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
@@ -2607,9 +2607,7 @@
       <c r="AC32" s="35"/>
       <c r="AD32" s="35"/>
       <c r="AE32" s="35"/>
-      <c r="AF32" s="40" t="s">
-        <v>52</v>
-      </c>
+      <c r="AF32" s="40"/>
       <c r="AG32" s="35"/>
       <c r="AH32" s="39"/>
       <c r="AI32" s="39"/>
@@ -2655,13 +2653,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
@@ -2672,7 +2670,7 @@
       <c r="J34" s="45"/>
       <c r="K34" s="44"/>
       <c r="L34" s="45" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M34" s="45"/>
       <c r="N34" s="45"/>
@@ -2695,19 +2693,19 @@
       <c r="AE34" s="45"/>
       <c r="AF34" s="45"/>
       <c r="AG34" s="45"/>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="46"/>
-      <c r="AJ34" s="46"/>
+      <c r="AH34" s="47"/>
+      <c r="AI34" s="47"/>
+      <c r="AJ34" s="47"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="43" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
@@ -2738,22 +2736,22 @@
       <c r="AD35" s="45"/>
       <c r="AE35" s="45"/>
       <c r="AF35" s="44" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AG35" s="45"/>
-      <c r="AH35" s="46"/>
-      <c r="AI35" s="46"/>
-      <c r="AJ35" s="46"/>
+      <c r="AH35" s="47"/>
+      <c r="AI35" s="47"/>
+      <c r="AJ35" s="47"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="43" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="45"/>
@@ -2785,19 +2783,19 @@
       <c r="AE36" s="45"/>
       <c r="AF36" s="45"/>
       <c r="AG36" s="45"/>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="46"/>
-      <c r="AJ36" s="46"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="47"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D37" s="45"/>
       <c r="E37" s="45"/>
@@ -2808,7 +2806,7 @@
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
       <c r="L37" s="44" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M37" s="45"/>
       <c r="N37" s="45"/>
@@ -2830,22 +2828,22 @@
       <c r="AD37" s="45"/>
       <c r="AE37" s="45"/>
       <c r="AF37" s="44" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AG37" s="45"/>
-      <c r="AH37" s="47"/>
-      <c r="AI37" s="47"/>
-      <c r="AJ37" s="47"/>
+      <c r="AH37" s="48"/>
+      <c r="AI37" s="48"/>
+      <c r="AJ37" s="48"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="43" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
@@ -2865,7 +2863,7 @@
       <c r="S38" s="45"/>
       <c r="T38" s="45"/>
       <c r="U38" s="44" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="V38" s="45"/>
       <c r="W38" s="45"/>
@@ -2879,19 +2877,19 @@
       <c r="AE38" s="45"/>
       <c r="AF38" s="45"/>
       <c r="AG38" s="45"/>
-      <c r="AH38" s="47"/>
-      <c r="AI38" s="47"/>
-      <c r="AJ38" s="47"/>
+      <c r="AH38" s="48"/>
+      <c r="AI38" s="48"/>
+      <c r="AJ38" s="48"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="43" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
@@ -2911,7 +2909,7 @@
       <c r="S39" s="45"/>
       <c r="T39" s="45"/>
       <c r="U39" s="44" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="V39" s="45"/>
       <c r="W39" s="45"/>
@@ -2925,19 +2923,19 @@
       <c r="AE39" s="45"/>
       <c r="AF39" s="45"/>
       <c r="AG39" s="45"/>
-      <c r="AH39" s="47"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
+      <c r="AH39" s="48"/>
+      <c r="AI39" s="48"/>
+      <c r="AJ39" s="48"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
@@ -2971,19 +2969,19 @@
       <c r="AE40" s="45"/>
       <c r="AF40" s="45"/>
       <c r="AG40" s="45"/>
-      <c r="AH40" s="47"/>
-      <c r="AI40" s="47"/>
-      <c r="AJ40" s="47"/>
+      <c r="AH40" s="48"/>
+      <c r="AI40" s="48"/>
+      <c r="AJ40" s="48"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="43" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B41" s="43" t="s">
         <v>223</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D41" s="45"/>
       <c r="E41" s="45"/>
@@ -3017,13 +3015,13 @@
       <c r="AE41" s="45"/>
       <c r="AF41" s="45"/>
       <c r="AG41" s="45"/>
-      <c r="AH41" s="47"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="47"/>
+      <c r="AH41" s="48"/>
+      <c r="AI41" s="48"/>
+      <c r="AJ41" s="48"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="43" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B42" s="42"/>
       <c r="C42" s="44"/>
@@ -3063,7 +3061,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="42" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B43" s="42"/>
       <c r="C43" s="44"/>
@@ -3141,13 +3139,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D45" s="53"/>
       <c r="E45" s="52"/>
@@ -3158,7 +3156,7 @@
       <c r="J45" s="53"/>
       <c r="K45" s="53"/>
       <c r="L45" s="54" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M45" s="53"/>
       <c r="N45" s="53"/>
@@ -3180,7 +3178,7 @@
       <c r="AD45" s="53"/>
       <c r="AE45" s="53"/>
       <c r="AF45" s="55" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AG45" s="52"/>
       <c r="AH45" s="56"/>
@@ -3189,13 +3187,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B46" s="57" t="s">
         <v>225</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D46" s="53"/>
       <c r="E46" s="52"/>
@@ -3237,13 +3235,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="59" t="s">
         <v>228</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D47" s="60"/>
       <c r="E47" s="61"/>
@@ -3281,13 +3279,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B48" s="57" t="s">
         <v>229</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D48" s="53"/>
       <c r="E48" s="52"/>
@@ -3329,13 +3327,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B49" s="57" t="s">
         <v>232</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D49" s="53"/>
       <c r="E49" s="52"/>
@@ -3370,20 +3368,20 @@
       <c r="AF49" s="52"/>
       <c r="AG49" s="52"/>
       <c r="AH49" s="61" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI49" s="56"/>
       <c r="AJ49" s="56"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B50" s="57" t="s">
         <v>234</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D50" s="53"/>
       <c r="E50" s="52"/>
@@ -3425,13 +3423,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B51" s="57" t="s">
         <v>237</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D51" s="53"/>
       <c r="E51" s="52"/>
@@ -3466,20 +3464,20 @@
       <c r="AF51" s="52"/>
       <c r="AG51" s="52"/>
       <c r="AH51" s="61" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AI51" s="56"/>
       <c r="AJ51" s="56"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B52" s="57" t="s">
         <v>239</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D52" s="53"/>
       <c r="E52" s="52"/>
@@ -3521,13 +3519,13 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B53" s="57" t="s">
         <v>242</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D53" s="53"/>
       <c r="E53" s="52"/>
@@ -3569,7 +3567,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="59" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B54" s="59" t="s">
         <v>228</v>
@@ -3611,10 +3609,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="59" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C55" s="61"/>
       <c r="D55" s="60"/>
@@ -3679,335 +3677,335 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="I1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="B5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>71</v>
+      <c r="B6" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="24"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="24"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="24"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="24"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="24"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="24"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="24"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="24"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="24"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="24"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="24"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="24"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="24"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="24"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="24"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="24"/>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="24"/>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="24"/>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="24"/>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="24"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="24"/>
+      <c r="C27" s="19"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="24"/>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="24"/>
+      <c r="C29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="24"/>
+      <c r="C30" s="19"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="24"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="24"/>
+      <c r="C32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="24"/>
+      <c r="C33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="24"/>
+      <c r="C34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="24"/>
+      <c r="C35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="24"/>
+      <c r="C36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="24"/>
+      <c r="C37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="24"/>
+      <c r="C38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="24"/>
+      <c r="C39" s="19"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="24"/>
+      <c r="C40" s="19"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="24"/>
+      <c r="C41" s="19"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="24"/>
+      <c r="C42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="24"/>
+      <c r="C43" s="19"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="24"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="24"/>
+      <c r="C45" s="19"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="24"/>
+      <c r="C46" s="19"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="24"/>
+      <c r="C47" s="19"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="24"/>
+      <c r="C48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="24"/>
+      <c r="C49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="24"/>
+      <c r="C50" s="19"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="24"/>
+      <c r="C51" s="19"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="24"/>
+      <c r="C52" s="19"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="24"/>
+      <c r="C53" s="19"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="24"/>
+      <c r="C54" s="19"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="24"/>
+      <c r="C55" s="19"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="24"/>
+      <c r="C56" s="19"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="24"/>
+      <c r="C57" s="19"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="24"/>
+      <c r="C58" s="19"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="24"/>
+      <c r="C59" s="19"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="24"/>
+      <c r="C60" s="19"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="24"/>
+      <c r="C61" s="19"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="24"/>
+      <c r="C62" s="19"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="24"/>
+      <c r="C63" s="19"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="24"/>
+      <c r="C64" s="19"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="24"/>
+      <c r="C65" s="19"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="24"/>
+      <c r="C66" s="19"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="24"/>
+      <c r="C67" s="19"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4034,87 +4032,87 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="18">
         <f>NOW()</f>
-        <v>43773.55133</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="18" t="s">
+        <v>43773.59398</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
+      <c r="E2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4139,1115 +4137,1115 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="I1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C6" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="C7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="B11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C13" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C14" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="C16" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="24" t="s">
+      <c r="B18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C23" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="24" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="24" t="s">
+      <c r="B25" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24" t="s">
+      <c r="B26" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24" t="s">
+      <c r="B27" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="24" t="s">
+      <c r="B28" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="C31" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
+      <c r="C32" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
         <v>133</v>
@@ -5264,26 +5262,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -5293,126 +5291,126 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
+      <c r="A48" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
+      <c r="A49" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" t="s">
         <v>176</v>
-      </c>
-      <c r="B54" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
         <v>133</v>
@@ -5423,154 +5421,154 @@
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>190</v>
+      <c r="A58" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>192</v>
+      <c r="A59" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>194</v>
+      <c r="A60" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="B61" s="25" t="s">
+      <c r="A61" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="24" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="C66" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="25" t="s">
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B64" s="19" t="s">
+      <c r="C67" s="24" t="s">
         <v>198</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C69" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
-      </c>
-      <c r="C72" s="48" t="s">
-        <v>167</v>
+        <v>205</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B74" t="s">
         <v>133</v>

--- a/config/default/forms/app/pregnancy_facility_visit_reminder.xlsx
+++ b/config/default/forms/app/pregnancy_facility_visit_reminder.xlsx
@@ -1,15 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\apoorva\cht-core\config\default\forms\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65DA76D-4DB4-48A6-A43B-33A95213F177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="survey" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="settings" sheetId="3" r:id="rId5"/>
-    <sheet state="hidden" name="choices-backup" sheetId="4" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -232,18 +252,12 @@
     <t>contact</t>
   </si>
   <si>
-    <t>db:person</t>
-  </si>
-  <si>
     <t>_id</t>
   </si>
   <si>
     <t>What is the patient's name?</t>
   </si>
   <si>
-    <t>db-object</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -749,62 +763,74 @@
   </si>
   <si>
     <t>Pregnancy UUID</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>select-contact type-person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd-MM-yyyy HH-mm-ss"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF76A5AF"/>
       <name val="Arial"/>
     </font>
@@ -814,7 +840,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -902,224 +928,479 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="65">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="14" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.0"/>
-    <col customWidth="1" min="2" max="2" width="33.29"/>
-    <col customWidth="1" min="3" max="3" width="43.29"/>
-    <col customWidth="1" hidden="1" min="4" max="5" width="8.57"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="8.71"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="8.86"/>
-    <col customWidth="1" hidden="1" min="8" max="9" width="8.14"/>
-    <col customWidth="1" min="10" max="10" width="14.43"/>
-    <col customWidth="1" min="11" max="11" width="53.86"/>
-    <col customWidth="1" min="12" max="12" width="17.43"/>
-    <col customWidth="1" min="13" max="13" width="37.71"/>
-    <col customWidth="1" min="14" max="14" width="32.71"/>
-    <col customWidth="1" hidden="1" min="15" max="20" width="25.86"/>
-    <col customWidth="1" min="21" max="21" width="73.86"/>
-    <col customWidth="1" min="22" max="22" width="14.43"/>
-    <col customWidth="1" min="23" max="23" width="30.0"/>
-    <col customWidth="1" hidden="1" min="24" max="29" width="14.43"/>
-    <col customWidth="1" min="30" max="30" width="14.43"/>
-    <col customWidth="1" min="31" max="36" width="29.86"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
+    <col min="4" max="5" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="8.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="53.88671875" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" customWidth="1"/>
+    <col min="14" max="14" width="32.6640625" customWidth="1"/>
+    <col min="15" max="20" width="25.88671875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="73.88671875" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="30" customWidth="1"/>
+    <col min="24" max="29" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="14.44140625" customWidth="1"/>
+    <col min="31" max="36" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1506,7 @@
       <c r="AI1" s="14"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
@@ -1273,7 +1554,7 @@
       <c r="AI2" s="26"/>
       <c r="AJ2" s="26"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>60</v>
       </c>
@@ -1319,7 +1600,7 @@
       <c r="AI3" s="26"/>
       <c r="AJ3" s="26"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>60</v>
       </c>
@@ -1363,7 +1644,7 @@
       <c r="AI4" s="26"/>
       <c r="AJ4" s="26"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>60</v>
       </c>
@@ -1407,7 +1688,7 @@
       <c r="AI5" s="26"/>
       <c r="AJ5" s="26"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>45</v>
       </c>
@@ -1451,15 +1732,15 @@
       <c r="AI6" s="26"/>
       <c r="AJ6" s="26"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>74</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -1469,8 +1750,8 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
-        <v>75</v>
+      <c r="L7" s="64" t="s">
+        <v>244</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
@@ -1497,7 +1778,7 @@
       <c r="AI7" s="26"/>
       <c r="AJ7" s="26"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>60</v>
       </c>
@@ -1505,7 +1786,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -1541,15 +1822,15 @@
       <c r="AI8" s="26"/>
       <c r="AJ8" s="26"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -1585,15 +1866,15 @@
       <c r="AI9" s="26"/>
       <c r="AJ9" s="26"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -1629,15 +1910,15 @@
       <c r="AI10" s="26"/>
       <c r="AJ10" s="26"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -1666,7 +1947,7 @@
       <c r="AB11" s="23"/>
       <c r="AC11" s="23"/>
       <c r="AD11" s="23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="23"/>
       <c r="AF11" s="23"/>
@@ -1675,15 +1956,15 @@
       <c r="AI11" s="26"/>
       <c r="AJ11" s="26"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -1719,12 +2000,12 @@
       <c r="AI12" s="26"/>
       <c r="AJ12" s="26"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>49</v>
@@ -1763,15 +2044,15 @@
       <c r="AI13" s="26"/>
       <c r="AJ13" s="26"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -1807,12 +2088,12 @@
       <c r="AI14" s="30"/>
       <c r="AJ14" s="30"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>49</v>
@@ -1851,7 +2132,7 @@
       <c r="AI15" s="26"/>
       <c r="AJ15" s="26"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>45</v>
       </c>
@@ -1895,15 +2176,15 @@
       <c r="AI16" s="26"/>
       <c r="AJ16" s="26"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -1939,15 +2220,15 @@
       <c r="AI17" s="26"/>
       <c r="AJ17" s="26"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -1983,9 +2264,9 @@
       <c r="AI18" s="26"/>
       <c r="AJ18" s="26"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>71</v>
@@ -2025,12 +2306,12 @@
       <c r="AI19" s="26"/>
       <c r="AJ19" s="26"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -2067,12 +2348,12 @@
       <c r="AI20" s="26"/>
       <c r="AJ20" s="26"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -2109,9 +2390,9 @@
       <c r="AI21" s="26"/>
       <c r="AJ21" s="26"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>71</v>
@@ -2151,9 +2432,9 @@
       <c r="AI22" s="26"/>
       <c r="AJ22" s="26"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>48</v>
@@ -2195,7 +2476,7 @@
       <c r="AI23" s="26"/>
       <c r="AJ23" s="26"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -2233,12 +2514,12 @@
       <c r="AI24" s="33"/>
       <c r="AJ24" s="33"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>49</v>
@@ -2261,7 +2542,7 @@
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
       <c r="U25" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
@@ -2281,12 +2562,12 @@
       <c r="AI25" s="37"/>
       <c r="AJ25" s="37"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C26" s="35" t="s">
         <v>49</v>
@@ -2309,7 +2590,7 @@
       <c r="S26" s="35"/>
       <c r="T26" s="35"/>
       <c r="U26" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
@@ -2329,12 +2610,12 @@
       <c r="AI26" s="37"/>
       <c r="AJ26" s="37"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>49</v>
@@ -2357,7 +2638,7 @@
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
@@ -2377,12 +2658,12 @@
       <c r="AI27" s="37"/>
       <c r="AJ27" s="37"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>49</v>
@@ -2405,7 +2686,7 @@
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
@@ -2425,12 +2706,12 @@
       <c r="AI28" s="37"/>
       <c r="AJ28" s="37"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>49</v>
@@ -2453,7 +2734,7 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
@@ -2473,12 +2754,12 @@
       <c r="AI29" s="37"/>
       <c r="AJ29" s="37"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>49</v>
@@ -2501,7 +2782,7 @@
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
@@ -2521,12 +2802,12 @@
       <c r="AI30" s="37"/>
       <c r="AJ30" s="37"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>49</v>
@@ -2549,7 +2830,7 @@
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
       <c r="U31" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
@@ -2567,12 +2848,12 @@
       <c r="AI31" s="39"/>
       <c r="AJ31" s="39"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C32" s="36" t="s">
         <v>49</v>
@@ -2595,7 +2876,7 @@
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
       <c r="U32" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
@@ -2613,7 +2894,7 @@
       <c r="AI32" s="39"/>
       <c r="AJ32" s="39"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -2651,15 +2932,15 @@
       <c r="AI33" s="41"/>
       <c r="AJ33" s="41"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
@@ -2697,15 +2978,15 @@
       <c r="AI34" s="47"/>
       <c r="AJ34" s="47"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>208</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>210</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
@@ -2743,15 +3024,15 @@
       <c r="AI35" s="47"/>
       <c r="AJ35" s="47"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="44" t="s">
         <v>211</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>213</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="45"/>
@@ -2787,12 +3068,12 @@
       <c r="AI36" s="47"/>
       <c r="AJ36" s="47"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C37" s="44" t="s">
         <v>49</v>
@@ -2835,12 +3116,12 @@
       <c r="AI37" s="48"/>
       <c r="AJ37" s="48"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C38" s="45" t="s">
         <v>49</v>
@@ -2863,7 +3144,7 @@
       <c r="S38" s="45"/>
       <c r="T38" s="45"/>
       <c r="U38" s="44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="V38" s="45"/>
       <c r="W38" s="45"/>
@@ -2881,12 +3162,12 @@
       <c r="AI38" s="48"/>
       <c r="AJ38" s="48"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C39" s="45" t="s">
         <v>49</v>
@@ -2909,7 +3190,7 @@
       <c r="S39" s="45"/>
       <c r="T39" s="45"/>
       <c r="U39" s="44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V39" s="45"/>
       <c r="W39" s="45"/>
@@ -2927,12 +3208,12 @@
       <c r="AI39" s="48"/>
       <c r="AJ39" s="48"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C40" s="45" t="s">
         <v>49</v>
@@ -2955,7 +3236,7 @@
       <c r="S40" s="45"/>
       <c r="T40" s="45"/>
       <c r="U40" s="44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="V40" s="45"/>
       <c r="W40" s="45"/>
@@ -2973,12 +3254,12 @@
       <c r="AI40" s="48"/>
       <c r="AJ40" s="48"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C41" s="45" t="s">
         <v>49</v>
@@ -3001,7 +3282,7 @@
       <c r="S41" s="45"/>
       <c r="T41" s="45"/>
       <c r="U41" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="V41" s="45"/>
       <c r="W41" s="45"/>
@@ -3019,9 +3300,9 @@
       <c r="AI41" s="48"/>
       <c r="AJ41" s="48"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B42" s="42"/>
       <c r="C42" s="44"/>
@@ -3059,9 +3340,9 @@
       <c r="AI42" s="49"/>
       <c r="AJ42" s="49"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B43" s="42"/>
       <c r="C43" s="44"/>
@@ -3099,7 +3380,7 @@
       <c r="AI43" s="49"/>
       <c r="AJ43" s="49"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -3137,7 +3418,7 @@
       <c r="AI44" s="50"/>
       <c r="AJ44" s="50"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="51" t="s">
         <v>45</v>
       </c>
@@ -3185,12 +3466,12 @@
       <c r="AI45" s="56"/>
       <c r="AJ45" s="56"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C46" s="52" t="s">
         <v>49</v>
@@ -3213,7 +3494,7 @@
       <c r="S46" s="53"/>
       <c r="T46" s="53"/>
       <c r="U46" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="V46" s="53"/>
       <c r="W46" s="53"/>
@@ -3228,17 +3509,17 @@
       <c r="AF46" s="52"/>
       <c r="AG46" s="52"/>
       <c r="AH46" s="58" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AI46" s="56"/>
       <c r="AJ46" s="56"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C47" s="52" t="s">
         <v>49</v>
@@ -3277,12 +3558,12 @@
       <c r="AI47" s="61"/>
       <c r="AJ47" s="61"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>49</v>
@@ -3305,7 +3586,7 @@
       <c r="S48" s="53"/>
       <c r="T48" s="53"/>
       <c r="U48" s="61" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="V48" s="53"/>
       <c r="W48" s="53"/>
@@ -3320,17 +3601,17 @@
       <c r="AF48" s="52"/>
       <c r="AG48" s="52"/>
       <c r="AH48" s="61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AI48" s="56"/>
       <c r="AJ48" s="56"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C49" s="52" t="s">
         <v>49</v>
@@ -3353,7 +3634,7 @@
       <c r="S49" s="53"/>
       <c r="T49" s="53"/>
       <c r="U49" s="61" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V49" s="53"/>
       <c r="W49" s="53"/>
@@ -3368,17 +3649,17 @@
       <c r="AF49" s="52"/>
       <c r="AG49" s="52"/>
       <c r="AH49" s="61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI49" s="56"/>
       <c r="AJ49" s="56"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>49</v>
@@ -3401,7 +3682,7 @@
       <c r="S50" s="53"/>
       <c r="T50" s="53"/>
       <c r="U50" s="61" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V50" s="53"/>
       <c r="W50" s="53"/>
@@ -3416,17 +3697,17 @@
       <c r="AF50" s="52"/>
       <c r="AG50" s="52"/>
       <c r="AH50" s="62" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AI50" s="56"/>
       <c r="AJ50" s="56"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C51" s="52" t="s">
         <v>49</v>
@@ -3449,7 +3730,7 @@
       <c r="S51" s="53"/>
       <c r="T51" s="53"/>
       <c r="U51" s="61" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="V51" s="53"/>
       <c r="W51" s="53"/>
@@ -3469,12 +3750,12 @@
       <c r="AI51" s="56"/>
       <c r="AJ51" s="56"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C52" s="52" t="s">
         <v>49</v>
@@ -3497,7 +3778,7 @@
       <c r="S52" s="53"/>
       <c r="T52" s="53"/>
       <c r="U52" s="61" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V52" s="53"/>
       <c r="W52" s="53"/>
@@ -3512,17 +3793,17 @@
       <c r="AF52" s="52"/>
       <c r="AG52" s="52"/>
       <c r="AH52" s="61" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AI52" s="56"/>
       <c r="AJ52" s="56"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C53" s="52" t="s">
         <v>49</v>
@@ -3545,7 +3826,7 @@
       <c r="S53" s="53"/>
       <c r="T53" s="53"/>
       <c r="U53" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="V53" s="53"/>
       <c r="W53" s="53"/>
@@ -3560,17 +3841,17 @@
       <c r="AF53" s="52"/>
       <c r="AG53" s="52"/>
       <c r="AH53" s="61" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AI53" s="56"/>
       <c r="AJ53" s="56"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B54" s="59" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="60"/>
@@ -3607,9 +3888,9 @@
       <c r="AI54" s="61"/>
       <c r="AJ54" s="61"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B55" s="59" t="s">
         <v>53</v>
@@ -3650,33 +3931,34 @@
       <c r="AJ55" s="61"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J55">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J55" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.29"/>
-    <col customWidth="1" min="2" max="22" width="45.86"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="22" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3718,7 +4000,7 @@
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>44</v>
       </c>
@@ -3748,7 +4030,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>44</v>
       </c>
@@ -3778,7 +4060,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="24"/>
@@ -3802,7 +4084,7 @@
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>57</v>
       </c>
@@ -3813,7 +4095,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>63</v>
       </c>
@@ -3824,214 +4106,215 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="19"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="19"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="19"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="19"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="19"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="19"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="19"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="19"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="19"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="19"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="19"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="19"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="19"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="19"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="19"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="19"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="19"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="19"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="19"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="19"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="19"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="19"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="19"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="19"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="19"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="19"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="19"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="19"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="19"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="19"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="19"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="19"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="19"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="19"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="19"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="19"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="19"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="19"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="19"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="19"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="19"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="19"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="19"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="19"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="19"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="19"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="19"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="19"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="19"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="19"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="19"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="19"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="19"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="19"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="19"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="19"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="19"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="19"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="19"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="19"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="19"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.0"/>
-    <col customWidth="1" min="2" max="2" width="28.57"/>
-    <col customWidth="1" min="3" max="3" width="24.57"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4073,7 +4356,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
@@ -4081,8 +4364,8 @@
         <v>43</v>
       </c>
       <c r="C2" s="18">
-        <f>NOW()</f>
-        <v>43773.59398</v>
+        <f ca="1">NOW()</f>
+        <v>45778.936595023151</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>50</v>
@@ -4115,28 +4398,29 @@
       <c r="Z2" s="13"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.29"/>
-    <col customWidth="1" min="2" max="23" width="45.86"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="23" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4179,15 +4463,15 @@
       <c r="V1" s="13"/>
       <c r="W1" s="13"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -4210,15 +4494,15 @@
       <c r="V2" s="19"/>
       <c r="W2" s="19"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -4241,7 +4525,7 @@
       <c r="V3" s="19"/>
       <c r="W3" s="19"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4266,15 +4550,15 @@
       <c r="V4" s="19"/>
       <c r="W4" s="19"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -4297,15 +4581,15 @@
       <c r="V5" s="19"/>
       <c r="W5" s="19"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -4328,15 +4612,15 @@
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -4359,15 +4643,15 @@
       <c r="V7" s="19"/>
       <c r="W7" s="19"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -4390,15 +4674,15 @@
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -4421,7 +4705,7 @@
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4446,15 +4730,15 @@
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -4477,15 +4761,15 @@
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -4508,15 +4792,15 @@
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -4539,15 +4823,15 @@
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -4570,15 +4854,15 @@
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -4601,15 +4885,15 @@
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -4632,7 +4916,7 @@
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -4657,15 +4941,15 @@
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -4688,15 +4972,15 @@
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -4719,15 +5003,15 @@
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -4750,15 +5034,15 @@
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -4781,15 +5065,15 @@
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -4812,15 +5096,15 @@
       <c r="V22" s="19"/>
       <c r="W22" s="19"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -4843,7 +5127,7 @@
       <c r="V23" s="19"/>
       <c r="W23" s="19"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -4868,15 +5152,15 @@
       <c r="V24" s="19"/>
       <c r="W24" s="19"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -4899,15 +5183,15 @@
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -4930,15 +5214,15 @@
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -4961,15 +5245,15 @@
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -4992,15 +5276,15 @@
       <c r="V28" s="19"/>
       <c r="W28" s="19"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -5023,7 +5307,7 @@
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -5048,15 +5332,15 @@
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -5079,15 +5363,15 @@
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>137</v>
-      </c>
       <c r="C32" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -5110,7 +5394,7 @@
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -5135,164 +5419,164 @@
       <c r="V33" s="19"/>
       <c r="W33" s="19"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
+        <f t="shared" ref="B34:B42" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>progesterone_only_pills</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>injectibles</v>
+      </c>
+      <c r="C36" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" t="str">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>implants_1_rod</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>implants_2_rods</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>iud</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>condoms</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>tubal_ligation</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>cycle_beads</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="str">
+        <f t="shared" ref="B44:B47" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>progesterone_only_pills</v>
-      </c>
-      <c r="C35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" t="str">
+        <v>wants_to_get_pregnant</v>
+      </c>
+      <c r="C45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>injectibles</v>
-      </c>
-      <c r="C36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" t="str">
+        <v>did_not_want_fp</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>implants_1_rod</v>
-      </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" si="1"/>
-        <v>implants_2_rods</v>
-      </c>
-      <c r="C38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="1"/>
-        <v>iud</v>
-      </c>
-      <c r="C39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="1"/>
-        <v>condoms</v>
-      </c>
-      <c r="C40" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="1"/>
-        <v>tubal_ligation</v>
-      </c>
-      <c r="C41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="1"/>
-        <v>cycle_beads</v>
-      </c>
-      <c r="C42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" t="str">
-        <f t="shared" ref="B44:B47" si="2">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" t="s">
-        <v>159</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="2"/>
-        <v>wants_to_get_pregnant</v>
-      </c>
-      <c r="C45" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" t="str">
-        <f t="shared" si="2"/>
-        <v>did_not_want_fp</v>
-      </c>
-      <c r="C46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B48" s="24" t="s">
         <v>46</v>
@@ -5321,9 +5605,9 @@
       <c r="V48" s="13"/>
       <c r="W48" s="13"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>51</v>
@@ -5352,1158 +5636,1158 @@
       <c r="V49" s="13"/>
       <c r="W49" s="13"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s">
         <v>168</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
         <v>169</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" t="s">
         <v>171</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" t="s">
-        <v>168</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" t="s">
         <v>173</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" t="s">
         <v>175</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" t="s">
-        <v>168</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B58" s="24" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" t="s">
-        <v>168</v>
-      </c>
-      <c r="B56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="24" t="s">
+      <c r="C58" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="24" t="s">
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C59" s="24" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B59" s="24" t="s">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C60" s="24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="24" t="s">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="13" t="s">
+      <c r="B63" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="13" t="s">
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C64" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C64" s="24" t="s">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B65" s="13" t="s">
+      <c r="C65" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C66" s="24" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B66" s="13" t="s">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C67" s="24" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B67" s="13" t="s">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="B69" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" t="s">
+      <c r="C69" t="s">
         <v>199</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" t="s">
         <v>200</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" t="s">
-        <v>199</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>202</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B72" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" t="s">
+      <c r="C72" s="46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" t="s">
         <v>204</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C73" t="s">
         <v>205</v>
       </c>
-      <c r="C72" s="46" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" t="s">
-        <v>204</v>
-      </c>
-      <c r="B73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>